--- a/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>VIAO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>52200</v>
+        <v>51900</v>
       </c>
       <c r="E8" s="3">
-        <v>77600</v>
+        <v>51300</v>
       </c>
       <c r="F8" s="3">
-        <v>30700</v>
+        <v>76300</v>
       </c>
       <c r="G8" s="3">
-        <v>164100</v>
+        <v>30200</v>
       </c>
       <c r="H8" s="3">
-        <v>45100</v>
+        <v>161400</v>
       </c>
       <c r="I8" s="3">
-        <v>39400</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>44400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>38700</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>44500</v>
+        <v>43300</v>
       </c>
       <c r="E9" s="3">
-        <v>66000</v>
+        <v>43800</v>
       </c>
       <c r="F9" s="3">
-        <v>25400</v>
+        <v>64900</v>
       </c>
       <c r="G9" s="3">
-        <v>152200</v>
+        <v>25000</v>
       </c>
       <c r="H9" s="3">
-        <v>39800</v>
+        <v>149600</v>
       </c>
       <c r="I9" s="3">
-        <v>36200</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>39100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>35600</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>7700</v>
+        <v>8600</v>
       </c>
       <c r="E10" s="3">
-        <v>11600</v>
+        <v>7500</v>
       </c>
       <c r="F10" s="3">
-        <v>5300</v>
+        <v>11400</v>
       </c>
       <c r="G10" s="3">
-        <v>12000</v>
+        <v>5200</v>
       </c>
       <c r="H10" s="3">
-        <v>5300</v>
+        <v>11800</v>
       </c>
       <c r="I10" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J10" s="3">
         <v>3200</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
-        <v>3000</v>
-      </c>
       <c r="H12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -914,11 +936,11 @@
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1600</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -929,8 +951,11 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>50100</v>
+        <v>55300</v>
       </c>
       <c r="E17" s="3">
-        <v>77200</v>
+        <v>49300</v>
       </c>
       <c r="F17" s="3">
-        <v>31300</v>
+        <v>75900</v>
       </c>
       <c r="G17" s="3">
-        <v>177300</v>
+        <v>30800</v>
       </c>
       <c r="H17" s="3">
-        <v>45700</v>
+        <v>174300</v>
       </c>
       <c r="I17" s="3">
-        <v>42000</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>44900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>41300</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E18" s="3">
         <v>2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
-        <v>-13200</v>
-      </c>
       <c r="H18" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>-2600</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,57 +1042,61 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-500</v>
       </c>
       <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>-500</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>3800</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-7300</v>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-7200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1068,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,66 +1136,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1700</v>
+        <v>-3900</v>
       </c>
       <c r="E23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-15100</v>
-      </c>
       <c r="H23" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>-3100</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3">
-        <v>500</v>
+      <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F24" s="3">
+        <v>700</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-900</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1700</v>
+        <v>-4800</v>
       </c>
       <c r="E26" s="3">
-        <v>-400</v>
+        <v>1600</v>
       </c>
       <c r="F26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-16000</v>
-      </c>
       <c r="H26" s="3">
-        <v>-700</v>
+        <v>-15700</v>
       </c>
       <c r="I26" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-2200</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1700</v>
+        <v>-4800</v>
       </c>
       <c r="E27" s="3">
-        <v>-600</v>
+        <v>1600</v>
       </c>
       <c r="F27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
-        <v>-14100</v>
-      </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-13800</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>500</v>
       </c>
       <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>500</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1700</v>
+        <v>-4800</v>
       </c>
       <c r="E33" s="3">
-        <v>-600</v>
+        <v>1600</v>
       </c>
       <c r="F33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
-        <v>-14100</v>
-      </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-13800</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1700</v>
+        <v>-4800</v>
       </c>
       <c r="E35" s="3">
-        <v>-600</v>
+        <v>1600</v>
       </c>
       <c r="F35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
-        <v>-14100</v>
-      </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-13800</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,19 +1619,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>104500</v>
+        <v>95300</v>
       </c>
       <c r="E41" s="3">
-        <v>8600</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>102800</v>
+      </c>
+      <c r="F41" s="3">
+        <v>8400</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1563,8 +1649,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,19 +1681,22 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>25600</v>
+        <v>31200</v>
       </c>
       <c r="E43" s="3">
-        <v>24200</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>25200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>23800</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1621,19 +1713,22 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21200</v>
+        <v>20400</v>
       </c>
       <c r="E44" s="3">
-        <v>19500</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+        <v>20800</v>
+      </c>
+      <c r="F44" s="3">
+        <v>19100</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1650,19 +1745,22 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5700</v>
+        <v>4200</v>
       </c>
       <c r="E45" s="3">
-        <v>12700</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>5600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>12500</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1679,19 +1777,22 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>157100</v>
+        <v>151000</v>
       </c>
       <c r="E46" s="3">
-        <v>64900</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>154500</v>
+      </c>
+      <c r="F46" s="3">
+        <v>63900</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1708,8 +1809,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1719,8 +1823,8 @@
       <c r="E47" s="3">
         <v>200</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>200</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1737,19 +1841,22 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18500</v>
+        <v>19800</v>
       </c>
       <c r="E48" s="3">
-        <v>20100</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>18200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>19700</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1766,19 +1873,22 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="E49" s="3">
-        <v>6200</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>5400</v>
+      </c>
+      <c r="F49" s="3">
+        <v>6100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1795,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1862,11 +1981,11 @@
         <v>500</v>
       </c>
       <c r="E52" s="3">
+        <v>500</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,19 +2033,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>181800</v>
+        <v>176300</v>
       </c>
       <c r="E54" s="3">
-        <v>91700</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>178800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>90100</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1940,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,19 +2095,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>30400</v>
+        <v>36000</v>
       </c>
       <c r="E57" s="3">
-        <v>25400</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>29900</v>
+      </c>
+      <c r="F57" s="3">
+        <v>25000</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1995,19 +2125,22 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>40600</v>
+        <v>26100</v>
       </c>
       <c r="E58" s="3">
-        <v>40200</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>39900</v>
+      </c>
+      <c r="F58" s="3">
+        <v>39500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2024,19 +2157,22 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17700</v>
+        <v>11600</v>
       </c>
       <c r="E59" s="3">
-        <v>12600</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>17400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>12400</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2053,19 +2189,22 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>88600</v>
+        <v>73800</v>
       </c>
       <c r="E60" s="3">
-        <v>78300</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>87200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>77000</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2221,22 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11500</v>
+        <v>10800</v>
       </c>
       <c r="E61" s="3">
-        <v>12300</v>
+        <v>11300</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>12100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2111,20 +2253,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,19 +2381,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100600</v>
+        <v>85100</v>
       </c>
       <c r="E66" s="3">
-        <v>92100</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>98900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>90500</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2256,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,19 +2555,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>75800</v>
+        <v>86500</v>
       </c>
       <c r="E72" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>74600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-3600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2414,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,20 +2683,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>81200</v>
+        <v>91300</v>
       </c>
       <c r="E76" s="3">
+        <v>79900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1700</v>
+        <v>-4800</v>
       </c>
       <c r="E81" s="3">
-        <v>-600</v>
+        <v>1600</v>
       </c>
       <c r="F81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
-        <v>-14100</v>
-      </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-13800</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,19 +2832,20 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
-        <v>4200</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3">
+        <v>4100</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2664,8 +2862,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,20 +3022,23 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +3054,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,20 +3070,21 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,20 +3164,23 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,20 +3338,23 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3125,19 +3370,22 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3154,19 +3402,22 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-2500</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -3181,6 +3432,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>VIAO</t>
   </si>
@@ -722,25 +722,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>51900</v>
+        <v>54000</v>
       </c>
       <c r="E8" s="3">
-        <v>51300</v>
+        <v>53400</v>
       </c>
       <c r="F8" s="3">
-        <v>76300</v>
+        <v>79500</v>
       </c>
       <c r="G8" s="3">
-        <v>30200</v>
+        <v>31500</v>
       </c>
       <c r="H8" s="3">
-        <v>161400</v>
+        <v>168100</v>
       </c>
       <c r="I8" s="3">
-        <v>44400</v>
+        <v>46200</v>
       </c>
       <c r="J8" s="3">
-        <v>38700</v>
+        <v>40300</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -754,25 +754,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>43300</v>
+        <v>45100</v>
       </c>
       <c r="E9" s="3">
-        <v>43800</v>
+        <v>45600</v>
       </c>
       <c r="F9" s="3">
-        <v>64900</v>
+        <v>67600</v>
       </c>
       <c r="G9" s="3">
-        <v>25000</v>
+        <v>26100</v>
       </c>
       <c r="H9" s="3">
-        <v>149600</v>
+        <v>155800</v>
       </c>
       <c r="I9" s="3">
-        <v>39100</v>
+        <v>40700</v>
       </c>
       <c r="J9" s="3">
-        <v>35600</v>
+        <v>37000</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -786,25 +786,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="E10" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="F10" s="3">
-        <v>11400</v>
+        <v>11900</v>
       </c>
       <c r="G10" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="H10" s="3">
-        <v>11800</v>
+        <v>12200</v>
       </c>
       <c r="I10" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J10" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -832,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E12" s="3">
         <v>500</v>
@@ -844,13 +844,13 @@
         <v>700</v>
       </c>
       <c r="H12" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="I12" s="3">
         <v>400</v>
       </c>
       <c r="J12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -940,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -971,25 +971,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>55300</v>
+        <v>57600</v>
       </c>
       <c r="E17" s="3">
-        <v>49300</v>
+        <v>51300</v>
       </c>
       <c r="F17" s="3">
-        <v>75900</v>
+        <v>79000</v>
       </c>
       <c r="G17" s="3">
-        <v>30800</v>
+        <v>32000</v>
       </c>
       <c r="H17" s="3">
-        <v>174300</v>
+        <v>181500</v>
       </c>
       <c r="I17" s="3">
-        <v>44900</v>
+        <v>46800</v>
       </c>
       <c r="J17" s="3">
-        <v>41300</v>
+        <v>43100</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1003,10 +1003,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3400</v>
+        <v>-3600</v>
       </c>
       <c r="E18" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F18" s="3">
         <v>500</v>
@@ -1015,13 +1015,13 @@
         <v>-500</v>
       </c>
       <c r="H18" s="3">
-        <v>-12900</v>
+        <v>-13500</v>
       </c>
       <c r="I18" s="3">
         <v>-600</v>
       </c>
       <c r="J18" s="3">
-        <v>-2600</v>
+        <v>-2800</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1055,13 +1055,13 @@
         <v>-400</v>
       </c>
       <c r="F20" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="G20" s="3">
         <v>-500</v>
       </c>
       <c r="H20" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="I20" s="3">
         <v>-500</v>
@@ -1087,16 +1087,16 @@
         <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="I21" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1145,10 +1145,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="E23" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F23" s="3">
         <v>-400</v>
@@ -1157,13 +1157,13 @@
         <v>-1000</v>
       </c>
       <c r="H23" s="3">
-        <v>-14800</v>
+        <v>-15500</v>
       </c>
       <c r="I23" s="3">
         <v>-1100</v>
       </c>
       <c r="J23" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1177,7 +1177,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
@@ -1241,10 +1241,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="E26" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F26" s="3">
         <v>-1100</v>
@@ -1253,13 +1253,13 @@
         <v>-1200</v>
       </c>
       <c r="H26" s="3">
-        <v>-15700</v>
+        <v>-16400</v>
       </c>
       <c r="I26" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J26" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1273,10 +1273,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="E27" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F27" s="3">
         <v>-1300</v>
@@ -1285,7 +1285,7 @@
         <v>-1100</v>
       </c>
       <c r="H27" s="3">
-        <v>-13800</v>
+        <v>-14400</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -1439,13 +1439,13 @@
         <v>400</v>
       </c>
       <c r="F32" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G32" s="3">
         <v>500</v>
       </c>
       <c r="H32" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I32" s="3">
         <v>500</v>
@@ -1465,10 +1465,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="E33" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F33" s="3">
         <v>-1300</v>
@@ -1477,7 +1477,7 @@
         <v>-1100</v>
       </c>
       <c r="H33" s="3">
-        <v>-13800</v>
+        <v>-14400</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="E35" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F35" s="3">
         <v>-1300</v>
@@ -1541,7 +1541,7 @@
         <v>-1100</v>
       </c>
       <c r="H35" s="3">
-        <v>-13800</v>
+        <v>-14400</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -1626,13 +1626,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>95300</v>
+        <v>99200</v>
       </c>
       <c r="E41" s="3">
-        <v>102800</v>
+        <v>107100</v>
       </c>
       <c r="F41" s="3">
-        <v>8400</v>
+        <v>8800</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1690,13 +1690,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>31200</v>
+        <v>32500</v>
       </c>
       <c r="E43" s="3">
-        <v>25200</v>
+        <v>26200</v>
       </c>
       <c r="F43" s="3">
-        <v>23800</v>
+        <v>24800</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1722,13 +1722,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>20400</v>
+        <v>21200</v>
       </c>
       <c r="E44" s="3">
-        <v>20800</v>
+        <v>21700</v>
       </c>
       <c r="F44" s="3">
-        <v>19100</v>
+        <v>19900</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1754,13 +1754,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="E45" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="F45" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1786,13 +1786,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>151000</v>
+        <v>157300</v>
       </c>
       <c r="E46" s="3">
-        <v>154500</v>
+        <v>160800</v>
       </c>
       <c r="F46" s="3">
-        <v>63900</v>
+        <v>66500</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1850,13 +1850,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19800</v>
+        <v>20600</v>
       </c>
       <c r="E48" s="3">
-        <v>18200</v>
+        <v>19000</v>
       </c>
       <c r="F48" s="3">
-        <v>19700</v>
+        <v>20500</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1882,13 +1882,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="E49" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="F49" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2042,13 +2042,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>176300</v>
+        <v>183600</v>
       </c>
       <c r="E54" s="3">
-        <v>178800</v>
+        <v>186200</v>
       </c>
       <c r="F54" s="3">
-        <v>90100</v>
+        <v>93900</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2102,13 +2102,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>36000</v>
+        <v>37500</v>
       </c>
       <c r="E57" s="3">
-        <v>29900</v>
+        <v>31100</v>
       </c>
       <c r="F57" s="3">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2134,13 +2134,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26100</v>
+        <v>27200</v>
       </c>
       <c r="E58" s="3">
-        <v>39900</v>
+        <v>41500</v>
       </c>
       <c r="F58" s="3">
-        <v>39500</v>
+        <v>41100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2166,13 +2166,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11600</v>
+        <v>12100</v>
       </c>
       <c r="E59" s="3">
-        <v>17400</v>
+        <v>18100</v>
       </c>
       <c r="F59" s="3">
-        <v>12400</v>
+        <v>12900</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2198,13 +2198,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>73800</v>
+        <v>76800</v>
       </c>
       <c r="E60" s="3">
-        <v>87200</v>
+        <v>90800</v>
       </c>
       <c r="F60" s="3">
-        <v>77000</v>
+        <v>80100</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2230,13 +2230,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10800</v>
+        <v>11300</v>
       </c>
       <c r="E61" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="F61" s="3">
-        <v>12100</v>
+        <v>12600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>85100</v>
+        <v>88600</v>
       </c>
       <c r="E66" s="3">
-        <v>98900</v>
+        <v>103000</v>
       </c>
       <c r="F66" s="3">
-        <v>90500</v>
+        <v>94300</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2564,13 +2564,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>86500</v>
+        <v>90000</v>
       </c>
       <c r="E72" s="3">
-        <v>74600</v>
+        <v>77700</v>
       </c>
       <c r="F72" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2692,10 +2692,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>91300</v>
+        <v>95100</v>
       </c>
       <c r="E76" s="3">
-        <v>79900</v>
+        <v>83200</v>
       </c>
       <c r="F76" s="3">
         <v>-400</v>
@@ -2793,10 +2793,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="E81" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F81" s="3">
         <v>-1300</v>
@@ -2805,7 +2805,7 @@
         <v>-1100</v>
       </c>
       <c r="H81" s="3">
-        <v>-13800</v>
+        <v>-14400</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -2838,26 +2838,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>4100</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3030,26 +3030,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3076,26 +3076,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3172,26 +3172,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3346,26 +3346,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>200</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3378,26 +3378,26 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3410,26 +3410,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>VIAO</t>
   </si>
@@ -722,25 +722,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>54000</v>
+        <v>51500</v>
       </c>
       <c r="E8" s="3">
-        <v>53400</v>
+        <v>50900</v>
       </c>
       <c r="F8" s="3">
-        <v>79500</v>
+        <v>75800</v>
       </c>
       <c r="G8" s="3">
-        <v>31500</v>
+        <v>30000</v>
       </c>
       <c r="H8" s="3">
-        <v>168100</v>
+        <v>160200</v>
       </c>
       <c r="I8" s="3">
-        <v>46200</v>
+        <v>44000</v>
       </c>
       <c r="J8" s="3">
-        <v>40300</v>
+        <v>38400</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -754,25 +754,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>45100</v>
+        <v>43000</v>
       </c>
       <c r="E9" s="3">
-        <v>45600</v>
+        <v>43400</v>
       </c>
       <c r="F9" s="3">
-        <v>67600</v>
+        <v>64400</v>
       </c>
       <c r="G9" s="3">
-        <v>26100</v>
+        <v>24800</v>
       </c>
       <c r="H9" s="3">
-        <v>155800</v>
+        <v>148500</v>
       </c>
       <c r="I9" s="3">
-        <v>40700</v>
+        <v>38800</v>
       </c>
       <c r="J9" s="3">
-        <v>37000</v>
+        <v>35300</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -786,25 +786,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="E10" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="F10" s="3">
-        <v>11900</v>
+        <v>11300</v>
       </c>
       <c r="G10" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="H10" s="3">
-        <v>12200</v>
+        <v>11700</v>
       </c>
       <c r="I10" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="J10" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -832,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E12" s="3">
         <v>500</v>
@@ -844,13 +844,13 @@
         <v>700</v>
       </c>
       <c r="H12" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="I12" s="3">
         <v>400</v>
       </c>
       <c r="J12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -940,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -971,25 +971,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>57600</v>
+        <v>54800</v>
       </c>
       <c r="E17" s="3">
-        <v>51300</v>
+        <v>48900</v>
       </c>
       <c r="F17" s="3">
-        <v>79000</v>
+        <v>75300</v>
       </c>
       <c r="G17" s="3">
-        <v>32000</v>
+        <v>30500</v>
       </c>
       <c r="H17" s="3">
-        <v>181500</v>
+        <v>173000</v>
       </c>
       <c r="I17" s="3">
-        <v>46800</v>
+        <v>44600</v>
       </c>
       <c r="J17" s="3">
-        <v>43100</v>
+        <v>41000</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1003,10 +1003,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3600</v>
+        <v>-3300</v>
       </c>
       <c r="E18" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F18" s="3">
         <v>500</v>
@@ -1015,13 +1015,13 @@
         <v>-500</v>
       </c>
       <c r="H18" s="3">
-        <v>-13500</v>
+        <v>-12800</v>
       </c>
       <c r="I18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="J18" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1055,13 +1055,13 @@
         <v>-400</v>
       </c>
       <c r="F20" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="G20" s="3">
         <v>-500</v>
       </c>
       <c r="H20" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="I20" s="3">
         <v>-500</v>
@@ -1087,16 +1087,16 @@
         <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>-7400</v>
+        <v>-7100</v>
       </c>
       <c r="I21" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1145,10 +1145,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="E23" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F23" s="3">
         <v>-400</v>
@@ -1157,13 +1157,13 @@
         <v>-1000</v>
       </c>
       <c r="H23" s="3">
-        <v>-15500</v>
+        <v>-14700</v>
       </c>
       <c r="I23" s="3">
         <v>-1100</v>
       </c>
       <c r="J23" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1195,7 +1195,7 @@
         <v>-400</v>
       </c>
       <c r="J24" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1241,10 +1241,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="E26" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F26" s="3">
         <v>-1100</v>
@@ -1253,13 +1253,13 @@
         <v>-1200</v>
       </c>
       <c r="H26" s="3">
-        <v>-16400</v>
+        <v>-15600</v>
       </c>
       <c r="I26" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J26" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1273,25 +1273,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="E27" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F27" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="G27" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="H27" s="3">
-        <v>-14400</v>
+        <v>-13700</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1439,13 +1439,13 @@
         <v>400</v>
       </c>
       <c r="F32" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G32" s="3">
         <v>500</v>
       </c>
       <c r="H32" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I32" s="3">
         <v>500</v>
@@ -1465,25 +1465,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="E33" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F33" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="G33" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="H33" s="3">
-        <v>-14400</v>
+        <v>-13700</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1529,25 +1529,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="E35" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F35" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="G35" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="H35" s="3">
-        <v>-14400</v>
+        <v>-13700</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1626,13 +1626,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>99200</v>
+        <v>94600</v>
       </c>
       <c r="E41" s="3">
-        <v>107100</v>
+        <v>102000</v>
       </c>
       <c r="F41" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1690,13 +1690,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>32500</v>
+        <v>31000</v>
       </c>
       <c r="E43" s="3">
-        <v>26200</v>
+        <v>25000</v>
       </c>
       <c r="F43" s="3">
-        <v>24800</v>
+        <v>23600</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1722,13 +1722,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21200</v>
+        <v>20100</v>
       </c>
       <c r="E44" s="3">
-        <v>21700</v>
+        <v>20700</v>
       </c>
       <c r="F44" s="3">
-        <v>19900</v>
+        <v>19000</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1754,13 +1754,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="E45" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="F45" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1786,13 +1786,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>157300</v>
+        <v>149900</v>
       </c>
       <c r="E46" s="3">
-        <v>160800</v>
+        <v>153300</v>
       </c>
       <c r="F46" s="3">
-        <v>66500</v>
+        <v>63400</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1850,13 +1850,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20600</v>
+        <v>19700</v>
       </c>
       <c r="E48" s="3">
-        <v>19000</v>
+        <v>18100</v>
       </c>
       <c r="F48" s="3">
-        <v>20500</v>
+        <v>19600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1882,13 +1882,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="E49" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="F49" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2042,13 +2042,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>183600</v>
+        <v>174900</v>
       </c>
       <c r="E54" s="3">
-        <v>186200</v>
+        <v>177400</v>
       </c>
       <c r="F54" s="3">
-        <v>93900</v>
+        <v>89500</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2102,13 +2102,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>37500</v>
+        <v>35700</v>
       </c>
       <c r="E57" s="3">
-        <v>31100</v>
+        <v>29700</v>
       </c>
       <c r="F57" s="3">
-        <v>26000</v>
+        <v>24800</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2134,13 +2134,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27200</v>
+        <v>26000</v>
       </c>
       <c r="E58" s="3">
-        <v>41500</v>
+        <v>39600</v>
       </c>
       <c r="F58" s="3">
-        <v>41100</v>
+        <v>39200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2166,13 +2166,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12100</v>
+        <v>11300</v>
       </c>
       <c r="E59" s="3">
-        <v>18100</v>
+        <v>17300</v>
       </c>
       <c r="F59" s="3">
-        <v>12900</v>
+        <v>12300</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2198,13 +2198,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>76800</v>
+        <v>73000</v>
       </c>
       <c r="E60" s="3">
-        <v>90800</v>
+        <v>86500</v>
       </c>
       <c r="F60" s="3">
-        <v>80100</v>
+        <v>76400</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2230,13 +2230,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11300</v>
+        <v>10800</v>
       </c>
       <c r="E61" s="3">
-        <v>11800</v>
+        <v>11200</v>
       </c>
       <c r="F61" s="3">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -2390,13 +2390,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>88600</v>
+        <v>84300</v>
       </c>
       <c r="E66" s="3">
-        <v>103000</v>
+        <v>98200</v>
       </c>
       <c r="F66" s="3">
-        <v>94300</v>
+        <v>89800</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2564,13 +2564,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>90000</v>
+        <v>85800</v>
       </c>
       <c r="E72" s="3">
-        <v>77700</v>
+        <v>74000</v>
       </c>
       <c r="F72" s="3">
-        <v>-3800</v>
+        <v>-3600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2692,10 +2692,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>95100</v>
+        <v>90600</v>
       </c>
       <c r="E76" s="3">
-        <v>83200</v>
+        <v>79300</v>
       </c>
       <c r="F76" s="3">
         <v>-400</v>
@@ -2793,25 +2793,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="E81" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F81" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="G81" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="H81" s="3">
-        <v>-14400</v>
+        <v>-13700</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2838,26 +2838,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>4100</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3030,26 +3030,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>-2200</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3076,26 +3076,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-600</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3172,26 +3172,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-600</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3346,26 +3346,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3378,26 +3378,26 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3410,26 +3410,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>-2500</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
   <si>
     <t>VIAO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,181 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>51500</v>
+        <v>96100</v>
       </c>
       <c r="E8" s="3">
-        <v>50900</v>
+        <v>46600</v>
       </c>
       <c r="F8" s="3">
-        <v>75800</v>
+        <v>49800</v>
       </c>
       <c r="G8" s="3">
-        <v>30000</v>
+        <v>49200</v>
       </c>
       <c r="H8" s="3">
-        <v>160200</v>
+        <v>73300</v>
       </c>
       <c r="I8" s="3">
+        <v>29000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>154900</v>
+      </c>
+      <c r="K8" s="3">
         <v>44000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>38400</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>43000</v>
+        <v>83800</v>
       </c>
       <c r="E9" s="3">
-        <v>43400</v>
+        <v>41300</v>
       </c>
       <c r="F9" s="3">
-        <v>64400</v>
+        <v>41600</v>
       </c>
       <c r="G9" s="3">
-        <v>24800</v>
+        <v>42000</v>
       </c>
       <c r="H9" s="3">
-        <v>148500</v>
+        <v>62300</v>
       </c>
       <c r="I9" s="3">
+        <v>24000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>143600</v>
+      </c>
+      <c r="K9" s="3">
         <v>38800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>35300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>8500</v>
+        <v>12300</v>
       </c>
       <c r="E10" s="3">
-        <v>7500</v>
+        <v>5300</v>
       </c>
       <c r="F10" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H10" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J10" s="3">
         <v>11300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="K10" s="3">
         <v>5200</v>
       </c>
-      <c r="H10" s="3">
-        <v>11700</v>
-      </c>
-      <c r="I10" s="3">
-        <v>5200</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +852,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="E12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="F12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>700</v>
-      </c>
       <c r="H12" s="3">
-        <v>2900</v>
+        <v>1200</v>
       </c>
       <c r="I12" s="3">
+        <v>600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +924,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +962,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -939,23 +985,29 @@
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
         <v>1600</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1017,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>54800</v>
+        <v>100200</v>
       </c>
       <c r="E17" s="3">
-        <v>48900</v>
+        <v>47200</v>
       </c>
       <c r="F17" s="3">
-        <v>75300</v>
+        <v>53000</v>
       </c>
       <c r="G17" s="3">
-        <v>30500</v>
+        <v>47300</v>
       </c>
       <c r="H17" s="3">
-        <v>173000</v>
+        <v>72800</v>
       </c>
       <c r="I17" s="3">
+        <v>29500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>167300</v>
+      </c>
+      <c r="K17" s="3">
         <v>44600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>41000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3300</v>
+        <v>-4100</v>
       </c>
       <c r="E18" s="3">
-        <v>2000</v>
+        <v>-600</v>
       </c>
       <c r="F18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H18" s="3">
         <v>500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-12800</v>
       </c>
       <c r="I18" s="3">
         <v>-500</v>
       </c>
       <c r="J18" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L18" s="3">
         <v>-2600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,40 +1109,48 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H20" s="3">
         <v>-800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1900</v>
       </c>
       <c r="I20" s="3">
         <v>-500</v>
       </c>
       <c r="J20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1087,28 +1161,34 @@
         <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>3700</v>
+        <v>4200</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="I21" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,72 +1219,90 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3800</v>
+        <v>-4700</v>
       </c>
       <c r="E23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G23" s="3">
         <v>1600</v>
       </c>
-      <c r="F23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="3">
+        <v>900</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>900</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-800</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4800</v>
+        <v>-5500</v>
       </c>
       <c r="E26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4800</v>
+        <v>-5500</v>
       </c>
       <c r="E27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
-        <v>-13700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1561,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
-        <v>400</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>300</v>
+      </c>
+      <c r="H32" s="3">
         <v>800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1900</v>
       </c>
       <c r="I32" s="3">
         <v>500</v>
       </c>
       <c r="J32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>500</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4800</v>
+        <v>-5500</v>
       </c>
       <c r="E33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
-        <v>-13700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4800</v>
+        <v>-5500</v>
       </c>
       <c r="E35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
-        <v>-13700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,25 +1792,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>94600</v>
+        <v>67100</v>
       </c>
       <c r="E41" s="3">
-        <v>102000</v>
+        <v>84000</v>
       </c>
       <c r="F41" s="3">
-        <v>8400</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>91500</v>
+      </c>
+      <c r="G41" s="3">
+        <v>98700</v>
+      </c>
+      <c r="H41" s="3">
+        <v>8100</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1652,8 +1826,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,25 +1864,31 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>31000</v>
+        <v>35000</v>
       </c>
       <c r="E43" s="3">
-        <v>25000</v>
+        <v>35200</v>
       </c>
       <c r="F43" s="3">
-        <v>23600</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>29900</v>
+      </c>
+      <c r="G43" s="3">
+        <v>24200</v>
+      </c>
+      <c r="H43" s="3">
+        <v>22900</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1716,25 +1902,31 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>20100</v>
+        <v>32200</v>
       </c>
       <c r="E44" s="3">
-        <v>20700</v>
+        <v>27400</v>
       </c>
       <c r="F44" s="3">
-        <v>19000</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>19500</v>
+      </c>
+      <c r="G44" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>18400</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1748,25 +1940,31 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4200</v>
+        <v>6700</v>
       </c>
       <c r="E45" s="3">
-        <v>5600</v>
+        <v>3800</v>
       </c>
       <c r="F45" s="3">
-        <v>12400</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>4100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>12000</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1780,25 +1978,31 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>149900</v>
+        <v>140900</v>
       </c>
       <c r="E46" s="3">
-        <v>153300</v>
+        <v>150500</v>
       </c>
       <c r="F46" s="3">
-        <v>63400</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>145000</v>
+      </c>
+      <c r="G46" s="3">
+        <v>148300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>61300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1812,25 +2016,31 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>200</v>
+      </c>
+      <c r="H47" s="3">
+        <v>200</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1844,25 +2054,31 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19700</v>
+        <v>23600</v>
       </c>
       <c r="E48" s="3">
-        <v>18100</v>
+        <v>21000</v>
       </c>
       <c r="F48" s="3">
-        <v>19600</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>19000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>17500</v>
+      </c>
+      <c r="H48" s="3">
+        <v>18900</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1876,25 +2092,31 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4800</v>
+        <v>5500</v>
       </c>
       <c r="E49" s="3">
-        <v>5400</v>
+        <v>4100</v>
       </c>
       <c r="F49" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>4600</v>
+      </c>
+      <c r="G49" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>5800</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1908,8 +2130,14 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,26 +2206,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>800</v>
+      </c>
+      <c r="F52" s="3">
+        <v>400</v>
+      </c>
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
-        <v>500</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +2244,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,25 +2282,31 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>174900</v>
+        <v>170900</v>
       </c>
       <c r="E54" s="3">
-        <v>177400</v>
+        <v>176500</v>
       </c>
       <c r="F54" s="3">
-        <v>89500</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>169200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>171600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>86500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2068,8 +2320,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,25 +2356,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>35700</v>
+        <v>33800</v>
       </c>
       <c r="E57" s="3">
-        <v>29700</v>
+        <v>35600</v>
       </c>
       <c r="F57" s="3">
-        <v>24800</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>34600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>28700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>24000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2128,25 +2390,31 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26000</v>
+        <v>29600</v>
       </c>
       <c r="E58" s="3">
-        <v>39600</v>
+        <v>30100</v>
       </c>
       <c r="F58" s="3">
-        <v>39200</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>25100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>38300</v>
+      </c>
+      <c r="H58" s="3">
+        <v>37900</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2160,25 +2428,31 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11300</v>
+        <v>12600</v>
       </c>
       <c r="E59" s="3">
-        <v>17300</v>
+        <v>11500</v>
       </c>
       <c r="F59" s="3">
-        <v>12300</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>11000</v>
+      </c>
+      <c r="G59" s="3">
+        <v>16700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>11900</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2192,25 +2466,31 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>73000</v>
+        <v>76000</v>
       </c>
       <c r="E60" s="3">
-        <v>86500</v>
+        <v>77200</v>
       </c>
       <c r="F60" s="3">
-        <v>76400</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>70600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>83700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>73900</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2224,25 +2504,31 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F61" s="3">
+        <v>10500</v>
+      </c>
+      <c r="G61" s="3">
         <v>10800</v>
       </c>
-      <c r="E61" s="3">
-        <v>11200</v>
-      </c>
-      <c r="F61" s="3">
-        <v>12000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>11600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2256,25 +2542,31 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>1000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2288,8 +2580,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,25 +2694,31 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>84300</v>
+        <v>88300</v>
       </c>
       <c r="E66" s="3">
-        <v>98200</v>
+        <v>89200</v>
       </c>
       <c r="F66" s="3">
-        <v>89800</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>81500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>95000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>86900</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2416,8 +2732,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,25 +2900,31 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>85800</v>
+        <v>77000</v>
       </c>
       <c r="E72" s="3">
-        <v>74000</v>
+        <v>81700</v>
       </c>
       <c r="F72" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>83000</v>
+      </c>
+      <c r="G72" s="3">
+        <v>71600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-3500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2590,8 +2938,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,26 +3052,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>90600</v>
+        <v>82700</v>
       </c>
       <c r="E76" s="3">
-        <v>79300</v>
+        <v>87300</v>
       </c>
       <c r="F76" s="3">
+        <v>87700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>76700</v>
+      </c>
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2718,8 +3090,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4800</v>
+        <v>-5500</v>
       </c>
       <c r="E81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
-        <v>-13700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3229,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2845,7 +3243,7 @@
         <v>3</v>
       </c>
       <c r="F83" s="3">
-        <v>4100</v>
+        <v>8000</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2865,8 +3263,14 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3453,14 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3037,7 +3471,7 @@
         <v>3</v>
       </c>
       <c r="F89" s="3">
-        <v>-2200</v>
+        <v>-800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -3057,8 +3491,14 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3511,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3083,7 +3525,7 @@
         <v>3</v>
       </c>
       <c r="F91" s="3">
-        <v>-600</v>
+        <v>-3200</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3103,8 +3545,14 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3621,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3179,7 +3639,7 @@
         <v>3</v>
       </c>
       <c r="F94" s="3">
-        <v>-600</v>
+        <v>-3200</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3199,8 +3659,14 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3827,14 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3353,7 +3845,7 @@
         <v>3</v>
       </c>
       <c r="F100" s="3">
-        <v>200</v>
+        <v>85200</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3373,8 +3865,14 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3385,7 +3883,7 @@
         <v>3</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3405,8 +3903,14 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3417,7 +3921,7 @@
         <v>3</v>
       </c>
       <c r="F102" s="3">
-        <v>-2500</v>
+        <v>80900</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -3435,6 +3939,12 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
@@ -730,25 +730,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>96100</v>
+        <v>92800</v>
       </c>
       <c r="E8" s="3">
-        <v>46600</v>
+        <v>45100</v>
       </c>
       <c r="F8" s="3">
-        <v>49800</v>
+        <v>48100</v>
       </c>
       <c r="G8" s="3">
-        <v>49200</v>
+        <v>47600</v>
       </c>
       <c r="H8" s="3">
-        <v>73300</v>
+        <v>70800</v>
       </c>
       <c r="I8" s="3">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="J8" s="3">
-        <v>154900</v>
+        <v>149700</v>
       </c>
       <c r="K8" s="3">
         <v>44000</v>
@@ -768,25 +768,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>83800</v>
+        <v>80900</v>
       </c>
       <c r="E9" s="3">
-        <v>41300</v>
+        <v>39900</v>
       </c>
       <c r="F9" s="3">
-        <v>41600</v>
+        <v>40200</v>
       </c>
       <c r="G9" s="3">
-        <v>42000</v>
+        <v>40600</v>
       </c>
       <c r="H9" s="3">
-        <v>62300</v>
+        <v>60200</v>
       </c>
       <c r="I9" s="3">
-        <v>24000</v>
+        <v>23200</v>
       </c>
       <c r="J9" s="3">
-        <v>143600</v>
+        <v>138800</v>
       </c>
       <c r="K9" s="3">
         <v>38800</v>
@@ -806,25 +806,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>12300</v>
+        <v>11900</v>
       </c>
       <c r="E10" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="F10" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="G10" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="H10" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="I10" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="J10" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="K10" s="3">
         <v>5200</v>
@@ -860,16 +860,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E12" s="3">
         <v>1100</v>
       </c>
       <c r="F12" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H12" s="3">
         <v>1200</v>
@@ -878,7 +878,7 @@
         <v>600</v>
       </c>
       <c r="J12" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K12" s="3">
         <v>400</v>
@@ -992,7 +992,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -1025,25 +1025,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100200</v>
+        <v>96800</v>
       </c>
       <c r="E17" s="3">
-        <v>47200</v>
+        <v>45600</v>
       </c>
       <c r="F17" s="3">
-        <v>53000</v>
+        <v>51200</v>
       </c>
       <c r="G17" s="3">
-        <v>47300</v>
+        <v>45700</v>
       </c>
       <c r="H17" s="3">
-        <v>72800</v>
+        <v>70400</v>
       </c>
       <c r="I17" s="3">
-        <v>29500</v>
+        <v>28500</v>
       </c>
       <c r="J17" s="3">
-        <v>167300</v>
+        <v>161700</v>
       </c>
       <c r="K17" s="3">
         <v>44600</v>
@@ -1063,25 +1063,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="E18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="G18" s="3">
         <v>1900</v>
       </c>
       <c r="H18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I18" s="3">
         <v>-500</v>
       </c>
       <c r="J18" s="3">
-        <v>-12400</v>
+        <v>-12000</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
@@ -1132,7 +1132,7 @@
         <v>-800</v>
       </c>
       <c r="I20" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="J20" s="3">
         <v>-1800</v>
@@ -1161,19 +1161,19 @@
         <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>-6900</v>
+        <v>-6600</v>
       </c>
       <c r="K21" s="3">
         <v>2500</v>
@@ -1231,25 +1231,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="E23" s="3">
         <v>-900</v>
       </c>
       <c r="F23" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="G23" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H23" s="3">
         <v>-300</v>
       </c>
       <c r="I23" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J23" s="3">
-        <v>-14200</v>
+        <v>-13800</v>
       </c>
       <c r="K23" s="3">
         <v>-1100</v>
@@ -1345,16 +1345,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="E26" s="3">
         <v>-900</v>
       </c>
       <c r="F26" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="G26" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H26" s="3">
         <v>-1000</v>
@@ -1363,7 +1363,7 @@
         <v>-1100</v>
       </c>
       <c r="J26" s="3">
-        <v>-15100</v>
+        <v>-14600</v>
       </c>
       <c r="K26" s="3">
         <v>-600</v>
@@ -1383,16 +1383,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="E27" s="3">
         <v>-900</v>
       </c>
       <c r="F27" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="G27" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H27" s="3">
         <v>-1200</v>
@@ -1401,7 +1401,7 @@
         <v>-1000</v>
       </c>
       <c r="J27" s="3">
-        <v>-13300</v>
+        <v>-12800</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>800</v>
       </c>
       <c r="I32" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J32" s="3">
         <v>1800</v>
@@ -1611,16 +1611,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="E33" s="3">
         <v>-900</v>
       </c>
       <c r="F33" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="G33" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H33" s="3">
         <v>-1200</v>
@@ -1629,7 +1629,7 @@
         <v>-1000</v>
       </c>
       <c r="J33" s="3">
-        <v>-13300</v>
+        <v>-12800</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -1687,16 +1687,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="E35" s="3">
         <v>-900</v>
       </c>
       <c r="F35" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="G35" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H35" s="3">
         <v>-1200</v>
@@ -1705,7 +1705,7 @@
         <v>-1000</v>
       </c>
       <c r="J35" s="3">
-        <v>-13300</v>
+        <v>-12800</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -1800,19 +1800,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>67100</v>
+        <v>64800</v>
       </c>
       <c r="E41" s="3">
-        <v>84000</v>
+        <v>81200</v>
       </c>
       <c r="F41" s="3">
-        <v>91500</v>
+        <v>88400</v>
       </c>
       <c r="G41" s="3">
-        <v>98700</v>
+        <v>95300</v>
       </c>
       <c r="H41" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1876,19 +1876,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>35000</v>
+        <v>33800</v>
       </c>
       <c r="E43" s="3">
-        <v>35200</v>
+        <v>34000</v>
       </c>
       <c r="F43" s="3">
-        <v>29900</v>
+        <v>28900</v>
       </c>
       <c r="G43" s="3">
-        <v>24200</v>
+        <v>23300</v>
       </c>
       <c r="H43" s="3">
-        <v>22900</v>
+        <v>22100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1914,19 +1914,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>32200</v>
+        <v>31100</v>
       </c>
       <c r="E44" s="3">
-        <v>27400</v>
+        <v>26500</v>
       </c>
       <c r="F44" s="3">
-        <v>19500</v>
+        <v>18800</v>
       </c>
       <c r="G44" s="3">
-        <v>20000</v>
+        <v>19300</v>
       </c>
       <c r="H44" s="3">
-        <v>18400</v>
+        <v>17800</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1952,19 +1952,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="E45" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="F45" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="G45" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="H45" s="3">
-        <v>12000</v>
+        <v>11600</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1990,19 +1990,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>140900</v>
+        <v>136100</v>
       </c>
       <c r="E46" s="3">
-        <v>150500</v>
+        <v>145400</v>
       </c>
       <c r="F46" s="3">
-        <v>145000</v>
+        <v>140100</v>
       </c>
       <c r="G46" s="3">
-        <v>148300</v>
+        <v>143200</v>
       </c>
       <c r="H46" s="3">
-        <v>61300</v>
+        <v>59200</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -2066,19 +2066,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23600</v>
+        <v>22800</v>
       </c>
       <c r="E48" s="3">
-        <v>21000</v>
+        <v>20300</v>
       </c>
       <c r="F48" s="3">
-        <v>19000</v>
+        <v>18400</v>
       </c>
       <c r="G48" s="3">
-        <v>17500</v>
+        <v>16900</v>
       </c>
       <c r="H48" s="3">
-        <v>18900</v>
+        <v>18300</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2104,19 +2104,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="E49" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="F49" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="G49" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="H49" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2227,7 +2227,7 @@
         <v>400</v>
       </c>
       <c r="G52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -2294,19 +2294,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>170900</v>
+        <v>165200</v>
       </c>
       <c r="E54" s="3">
-        <v>176500</v>
+        <v>170500</v>
       </c>
       <c r="F54" s="3">
-        <v>169200</v>
+        <v>163500</v>
       </c>
       <c r="G54" s="3">
-        <v>171600</v>
+        <v>165800</v>
       </c>
       <c r="H54" s="3">
-        <v>86500</v>
+        <v>83600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2364,19 +2364,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>33800</v>
+        <v>32600</v>
       </c>
       <c r="E57" s="3">
-        <v>35600</v>
+        <v>34400</v>
       </c>
       <c r="F57" s="3">
-        <v>34600</v>
+        <v>33400</v>
       </c>
       <c r="G57" s="3">
-        <v>28700</v>
+        <v>27700</v>
       </c>
       <c r="H57" s="3">
-        <v>24000</v>
+        <v>23200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2402,19 +2402,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29600</v>
+        <v>28600</v>
       </c>
       <c r="E58" s="3">
-        <v>30100</v>
+        <v>29100</v>
       </c>
       <c r="F58" s="3">
-        <v>25100</v>
+        <v>24300</v>
       </c>
       <c r="G58" s="3">
-        <v>38300</v>
+        <v>37000</v>
       </c>
       <c r="H58" s="3">
-        <v>37900</v>
+        <v>36600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2440,19 +2440,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="E59" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G59" s="3">
+        <v>16100</v>
+      </c>
+      <c r="H59" s="3">
         <v>11500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>11000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>16700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>11900</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2478,19 +2478,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>76000</v>
+        <v>73400</v>
       </c>
       <c r="E60" s="3">
-        <v>77200</v>
+        <v>74600</v>
       </c>
       <c r="F60" s="3">
-        <v>70600</v>
+        <v>68200</v>
       </c>
       <c r="G60" s="3">
-        <v>83700</v>
+        <v>80800</v>
       </c>
       <c r="H60" s="3">
-        <v>73900</v>
+        <v>71400</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2516,19 +2516,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11600</v>
+        <v>11200</v>
       </c>
       <c r="E61" s="3">
-        <v>11500</v>
+        <v>11100</v>
       </c>
       <c r="F61" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G61" s="3">
         <v>10500</v>
       </c>
-      <c r="G61" s="3">
-        <v>10800</v>
-      </c>
       <c r="H61" s="3">
-        <v>11600</v>
+        <v>11200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -2706,19 +2706,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>88300</v>
+        <v>85300</v>
       </c>
       <c r="E66" s="3">
-        <v>89200</v>
+        <v>86200</v>
       </c>
       <c r="F66" s="3">
-        <v>81500</v>
+        <v>78800</v>
       </c>
       <c r="G66" s="3">
-        <v>95000</v>
+        <v>91700</v>
       </c>
       <c r="H66" s="3">
-        <v>86900</v>
+        <v>84000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2912,19 +2912,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>77000</v>
+        <v>74400</v>
       </c>
       <c r="E72" s="3">
-        <v>81700</v>
+        <v>79000</v>
       </c>
       <c r="F72" s="3">
-        <v>83000</v>
+        <v>80200</v>
       </c>
       <c r="G72" s="3">
-        <v>71600</v>
+        <v>69200</v>
       </c>
       <c r="H72" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -3064,16 +3064,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>82700</v>
+        <v>79900</v>
       </c>
       <c r="E76" s="3">
-        <v>87300</v>
+        <v>84300</v>
       </c>
       <c r="F76" s="3">
-        <v>87700</v>
+        <v>84700</v>
       </c>
       <c r="G76" s="3">
-        <v>76700</v>
+        <v>74100</v>
       </c>
       <c r="H76" s="3">
         <v>-400</v>
@@ -3183,16 +3183,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="E81" s="3">
         <v>-900</v>
       </c>
       <c r="F81" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="G81" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H81" s="3">
         <v>-1200</v>
@@ -3201,7 +3201,7 @@
         <v>-1000</v>
       </c>
       <c r="J81" s="3">
-        <v>-13300</v>
+        <v>-12800</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>3</v>
       </c>
       <c r="F83" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -3525,7 +3525,7 @@
         <v>3</v>
       </c>
       <c r="F91" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3639,7 +3639,7 @@
         <v>3</v>
       </c>
       <c r="F94" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3845,7 +3845,7 @@
         <v>3</v>
       </c>
       <c r="F100" s="3">
-        <v>85200</v>
+        <v>82400</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3921,7 +3921,7 @@
         <v>3</v>
       </c>
       <c r="F102" s="3">
-        <v>80900</v>
+        <v>78200</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
@@ -730,25 +730,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>92800</v>
+        <v>88300</v>
       </c>
       <c r="E8" s="3">
-        <v>45100</v>
+        <v>42900</v>
       </c>
       <c r="F8" s="3">
-        <v>48100</v>
+        <v>45800</v>
       </c>
       <c r="G8" s="3">
-        <v>47600</v>
+        <v>45300</v>
       </c>
       <c r="H8" s="3">
-        <v>70800</v>
+        <v>67400</v>
       </c>
       <c r="I8" s="3">
-        <v>28000</v>
+        <v>26700</v>
       </c>
       <c r="J8" s="3">
-        <v>149700</v>
+        <v>142400</v>
       </c>
       <c r="K8" s="3">
         <v>44000</v>
@@ -768,25 +768,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>80900</v>
+        <v>77000</v>
       </c>
       <c r="E9" s="3">
-        <v>39900</v>
+        <v>38000</v>
       </c>
       <c r="F9" s="3">
-        <v>40200</v>
+        <v>38200</v>
       </c>
       <c r="G9" s="3">
-        <v>40600</v>
+        <v>38600</v>
       </c>
       <c r="H9" s="3">
-        <v>60200</v>
+        <v>57300</v>
       </c>
       <c r="I9" s="3">
-        <v>23200</v>
+        <v>22100</v>
       </c>
       <c r="J9" s="3">
-        <v>138800</v>
+        <v>132000</v>
       </c>
       <c r="K9" s="3">
         <v>38800</v>
@@ -806,25 +806,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>11900</v>
+        <v>11300</v>
       </c>
       <c r="E10" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="F10" s="3">
-        <v>7900</v>
+        <v>7500</v>
       </c>
       <c r="G10" s="3">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="H10" s="3">
-        <v>10600</v>
+        <v>10100</v>
       </c>
       <c r="I10" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="J10" s="3">
-        <v>10900</v>
+        <v>10400</v>
       </c>
       <c r="K10" s="3">
         <v>5200</v>
@@ -860,10 +860,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="E12" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="3">
         <v>1800</v>
@@ -872,13 +872,13 @@
         <v>400</v>
       </c>
       <c r="H12" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I12" s="3">
         <v>600</v>
       </c>
       <c r="J12" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K12" s="3">
         <v>400</v>
@@ -992,7 +992,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -1025,25 +1025,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>96800</v>
+        <v>92100</v>
       </c>
       <c r="E17" s="3">
-        <v>45600</v>
+        <v>43400</v>
       </c>
       <c r="F17" s="3">
-        <v>51200</v>
+        <v>48700</v>
       </c>
       <c r="G17" s="3">
-        <v>45700</v>
+        <v>43500</v>
       </c>
       <c r="H17" s="3">
-        <v>70400</v>
+        <v>66900</v>
       </c>
       <c r="I17" s="3">
-        <v>28500</v>
+        <v>27100</v>
       </c>
       <c r="J17" s="3">
-        <v>161700</v>
+        <v>153800</v>
       </c>
       <c r="K17" s="3">
         <v>44600</v>
@@ -1063,16 +1063,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="E18" s="3">
         <v>-500</v>
       </c>
       <c r="F18" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="G18" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H18" s="3">
         <v>400</v>
@@ -1081,7 +1081,7 @@
         <v>-500</v>
       </c>
       <c r="J18" s="3">
-        <v>-12000</v>
+        <v>-11400</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
@@ -1117,25 +1117,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="E20" s="3">
         <v>-300</v>
       </c>
       <c r="F20" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G20" s="3">
         <v>-300</v>
       </c>
       <c r="H20" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="I20" s="3">
         <v>-400</v>
       </c>
       <c r="J20" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="K20" s="3">
         <v>-500</v>
@@ -1161,19 +1161,19 @@
         <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>-6600</v>
+        <v>-6300</v>
       </c>
       <c r="K21" s="3">
         <v>2500</v>
@@ -1231,13 +1231,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="E23" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F23" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="G23" s="3">
         <v>1500</v>
@@ -1249,7 +1249,7 @@
         <v>-900</v>
       </c>
       <c r="J23" s="3">
-        <v>-13800</v>
+        <v>-13100</v>
       </c>
       <c r="K23" s="3">
         <v>-1100</v>
@@ -1269,19 +1269,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3">
-        <v>900</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H24" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
@@ -1345,25 +1345,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5300</v>
+        <v>-5100</v>
       </c>
       <c r="E26" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F26" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="G26" s="3">
         <v>1500</v>
       </c>
       <c r="H26" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I26" s="3">
         <v>-1100</v>
       </c>
       <c r="J26" s="3">
-        <v>-14600</v>
+        <v>-13900</v>
       </c>
       <c r="K26" s="3">
         <v>-600</v>
@@ -1383,25 +1383,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5300</v>
+        <v>-5100</v>
       </c>
       <c r="E27" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F27" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="G27" s="3">
         <v>1500</v>
       </c>
       <c r="H27" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I27" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J27" s="3">
-        <v>-12800</v>
+        <v>-12200</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E32" s="3">
         <v>300</v>
       </c>
       <c r="F32" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G32" s="3">
         <v>300</v>
       </c>
       <c r="H32" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I32" s="3">
         <v>400</v>
       </c>
       <c r="J32" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K32" s="3">
         <v>500</v>
@@ -1611,25 +1611,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5300</v>
+        <v>-5100</v>
       </c>
       <c r="E33" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F33" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="G33" s="3">
         <v>1500</v>
       </c>
       <c r="H33" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I33" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J33" s="3">
-        <v>-12800</v>
+        <v>-12200</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -1687,25 +1687,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5300</v>
+        <v>-5100</v>
       </c>
       <c r="E35" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F35" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="G35" s="3">
         <v>1500</v>
       </c>
       <c r="H35" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I35" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J35" s="3">
-        <v>-12800</v>
+        <v>-12200</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -1800,19 +1800,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>64800</v>
+        <v>61700</v>
       </c>
       <c r="E41" s="3">
-        <v>81200</v>
+        <v>77200</v>
       </c>
       <c r="F41" s="3">
-        <v>88400</v>
+        <v>84100</v>
       </c>
       <c r="G41" s="3">
-        <v>95300</v>
+        <v>90700</v>
       </c>
       <c r="H41" s="3">
-        <v>7800</v>
+        <v>7400</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1876,19 +1876,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>33800</v>
+        <v>32200</v>
       </c>
       <c r="E43" s="3">
-        <v>34000</v>
+        <v>32400</v>
       </c>
       <c r="F43" s="3">
-        <v>28900</v>
+        <v>27500</v>
       </c>
       <c r="G43" s="3">
-        <v>23300</v>
+        <v>22200</v>
       </c>
       <c r="H43" s="3">
-        <v>22100</v>
+        <v>21000</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1914,19 +1914,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>31100</v>
+        <v>29600</v>
       </c>
       <c r="E44" s="3">
-        <v>26500</v>
+        <v>25200</v>
       </c>
       <c r="F44" s="3">
-        <v>18800</v>
+        <v>17900</v>
       </c>
       <c r="G44" s="3">
-        <v>19300</v>
+        <v>18400</v>
       </c>
       <c r="H44" s="3">
-        <v>17800</v>
+        <v>16900</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1952,19 +1952,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="E45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F45" s="3">
         <v>3700</v>
       </c>
-      <c r="F45" s="3">
-        <v>3900</v>
-      </c>
       <c r="G45" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="H45" s="3">
-        <v>11600</v>
+        <v>11000</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1990,19 +1990,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>136100</v>
+        <v>129500</v>
       </c>
       <c r="E46" s="3">
-        <v>145400</v>
+        <v>138400</v>
       </c>
       <c r="F46" s="3">
-        <v>140100</v>
+        <v>133300</v>
       </c>
       <c r="G46" s="3">
-        <v>143200</v>
+        <v>136300</v>
       </c>
       <c r="H46" s="3">
-        <v>59200</v>
+        <v>56300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -2066,19 +2066,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22800</v>
+        <v>21700</v>
       </c>
       <c r="E48" s="3">
-        <v>20300</v>
+        <v>19300</v>
       </c>
       <c r="F48" s="3">
-        <v>18400</v>
+        <v>17500</v>
       </c>
       <c r="G48" s="3">
-        <v>16900</v>
+        <v>16100</v>
       </c>
       <c r="H48" s="3">
-        <v>18300</v>
+        <v>17400</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2104,19 +2104,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="E49" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="F49" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="G49" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="H49" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2218,10 +2218,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
@@ -2294,19 +2294,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>165200</v>
+        <v>157100</v>
       </c>
       <c r="E54" s="3">
-        <v>170500</v>
+        <v>162200</v>
       </c>
       <c r="F54" s="3">
-        <v>163500</v>
+        <v>155500</v>
       </c>
       <c r="G54" s="3">
-        <v>165800</v>
+        <v>157800</v>
       </c>
       <c r="H54" s="3">
-        <v>83600</v>
+        <v>79500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2364,19 +2364,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>32600</v>
+        <v>31000</v>
       </c>
       <c r="E57" s="3">
-        <v>34400</v>
+        <v>32700</v>
       </c>
       <c r="F57" s="3">
-        <v>33400</v>
+        <v>31800</v>
       </c>
       <c r="G57" s="3">
-        <v>27700</v>
+        <v>26400</v>
       </c>
       <c r="H57" s="3">
-        <v>23200</v>
+        <v>22100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2402,19 +2402,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>28600</v>
+        <v>27200</v>
       </c>
       <c r="E58" s="3">
-        <v>29100</v>
+        <v>27700</v>
       </c>
       <c r="F58" s="3">
-        <v>24300</v>
+        <v>23100</v>
       </c>
       <c r="G58" s="3">
-        <v>37000</v>
+        <v>35200</v>
       </c>
       <c r="H58" s="3">
-        <v>36600</v>
+        <v>34900</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2440,19 +2440,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12200</v>
+        <v>11600</v>
       </c>
       <c r="E59" s="3">
-        <v>11100</v>
+        <v>10600</v>
       </c>
       <c r="F59" s="3">
-        <v>10600</v>
+        <v>10100</v>
       </c>
       <c r="G59" s="3">
-        <v>16100</v>
+        <v>15400</v>
       </c>
       <c r="H59" s="3">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2478,19 +2478,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>73400</v>
+        <v>69900</v>
       </c>
       <c r="E60" s="3">
-        <v>74600</v>
+        <v>71000</v>
       </c>
       <c r="F60" s="3">
-        <v>68200</v>
+        <v>64900</v>
       </c>
       <c r="G60" s="3">
-        <v>80800</v>
+        <v>76900</v>
       </c>
       <c r="H60" s="3">
-        <v>71400</v>
+        <v>67900</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2516,19 +2516,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11200</v>
+        <v>10700</v>
       </c>
       <c r="E61" s="3">
-        <v>11100</v>
+        <v>10600</v>
       </c>
       <c r="F61" s="3">
-        <v>10100</v>
+        <v>9600</v>
       </c>
       <c r="G61" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="H61" s="3">
-        <v>11200</v>
+        <v>10700</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2706,19 +2706,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>85300</v>
+        <v>81200</v>
       </c>
       <c r="E66" s="3">
-        <v>86200</v>
+        <v>82000</v>
       </c>
       <c r="F66" s="3">
-        <v>78800</v>
+        <v>75000</v>
       </c>
       <c r="G66" s="3">
-        <v>91700</v>
+        <v>87300</v>
       </c>
       <c r="H66" s="3">
-        <v>84000</v>
+        <v>79900</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2912,19 +2912,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>74400</v>
+        <v>70800</v>
       </c>
       <c r="E72" s="3">
-        <v>79000</v>
+        <v>75100</v>
       </c>
       <c r="F72" s="3">
-        <v>80200</v>
+        <v>76300</v>
       </c>
       <c r="G72" s="3">
-        <v>69200</v>
+        <v>65800</v>
       </c>
       <c r="H72" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -3064,19 +3064,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>79900</v>
+        <v>76000</v>
       </c>
       <c r="E76" s="3">
-        <v>84300</v>
+        <v>80200</v>
       </c>
       <c r="F76" s="3">
-        <v>84700</v>
+        <v>80600</v>
       </c>
       <c r="G76" s="3">
-        <v>74100</v>
+        <v>70500</v>
       </c>
       <c r="H76" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3183,25 +3183,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5300</v>
+        <v>-5100</v>
       </c>
       <c r="E81" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F81" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="G81" s="3">
         <v>1500</v>
       </c>
       <c r="H81" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I81" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J81" s="3">
-        <v>-12800</v>
+        <v>-12200</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>3</v>
       </c>
       <c r="F83" s="3">
-        <v>7700</v>
+        <v>7300</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -3525,7 +3525,7 @@
         <v>3</v>
       </c>
       <c r="F91" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3639,7 +3639,7 @@
         <v>3</v>
       </c>
       <c r="F94" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3845,7 +3845,7 @@
         <v>3</v>
       </c>
       <c r="F100" s="3">
-        <v>82400</v>
+        <v>78400</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3921,7 +3921,7 @@
         <v>3</v>
       </c>
       <c r="F102" s="3">
-        <v>78200</v>
+        <v>74400</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
   <si>
     <t>VIAO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,219 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>88300</v>
+        <v>52600</v>
       </c>
       <c r="E8" s="3">
-        <v>42900</v>
+        <v>46200</v>
       </c>
       <c r="F8" s="3">
-        <v>45800</v>
+        <v>49300</v>
       </c>
       <c r="G8" s="3">
-        <v>45300</v>
+        <v>84900</v>
       </c>
       <c r="H8" s="3">
+        <v>41200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>43500</v>
+      </c>
+      <c r="K8" s="3">
         <v>67400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>26700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>142400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>44000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>38400</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>77000</v>
+        <v>48700</v>
       </c>
       <c r="E9" s="3">
-        <v>38000</v>
+        <v>43400</v>
       </c>
       <c r="F9" s="3">
-        <v>38200</v>
+        <v>42500</v>
       </c>
       <c r="G9" s="3">
-        <v>38600</v>
+        <v>74000</v>
       </c>
       <c r="H9" s="3">
+        <v>36500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>36700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>37100</v>
+      </c>
+      <c r="K9" s="3">
         <v>57300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>22100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>132000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>38800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>35300</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>11300</v>
+        <v>3900</v>
       </c>
       <c r="E10" s="3">
-        <v>4900</v>
+        <v>2800</v>
       </c>
       <c r="F10" s="3">
-        <v>7500</v>
+        <v>6800</v>
       </c>
       <c r="G10" s="3">
-        <v>6600</v>
+        <v>10900</v>
       </c>
       <c r="H10" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K10" s="3">
         <v>10100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>4600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>10400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>5200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>3100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,46 +892,58 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3100</v>
-      </c>
-      <c r="E12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="K12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>2600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +980,17 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +1027,17 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -991,23 +1059,32 @@
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3">
         <v>1400</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1096,105 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>92100</v>
+        <v>55700</v>
       </c>
       <c r="E17" s="3">
-        <v>43400</v>
+        <v>51800</v>
       </c>
       <c r="F17" s="3">
-        <v>48700</v>
+        <v>49600</v>
       </c>
       <c r="G17" s="3">
-        <v>43500</v>
+        <v>88500</v>
       </c>
       <c r="H17" s="3">
+        <v>41700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>47600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>41800</v>
+      </c>
+      <c r="K17" s="3">
         <v>66900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>27100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>153800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>44600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>41000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3700</v>
+        <v>-3100</v>
       </c>
       <c r="E18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-11400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-2600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,46 +1209,58 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-700</v>
       </c>
       <c r="I20" s="3">
         <v>-400</v>
       </c>
       <c r="J20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1160,35 +1270,44 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
-        <v>3900</v>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>3300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-6300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>2500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1344,111 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4400</v>
+        <v>-3400</v>
       </c>
       <c r="E23" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-13100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>400</v>
+      </c>
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
+        <v>600</v>
+      </c>
+      <c r="L24" s="3">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3">
-        <v>600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>800</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>-800</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1485,111 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5100</v>
+        <v>-3700</v>
       </c>
       <c r="E26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-13900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-2200</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5100</v>
+        <v>-3700</v>
       </c>
       <c r="E27" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-12200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1626,17 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1673,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1720,17 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1767,111 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>700</v>
       </c>
       <c r="I32" s="3">
         <v>400</v>
       </c>
       <c r="J32" s="3">
+        <v>300</v>
+      </c>
+      <c r="K32" s="3">
+        <v>700</v>
+      </c>
+      <c r="L32" s="3">
+        <v>400</v>
+      </c>
+      <c r="M32" s="3">
         <v>1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5100</v>
+        <v>-3700</v>
       </c>
       <c r="E33" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-12200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1908,116 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5100</v>
+        <v>-3700</v>
       </c>
       <c r="E35" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-12200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +2032,11 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,35 +2051,38 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>61700</v>
+        <v>47000</v>
       </c>
       <c r="E41" s="3">
-        <v>77200</v>
+        <v>57900</v>
       </c>
       <c r="F41" s="3">
-        <v>84100</v>
+        <v>54700</v>
       </c>
       <c r="G41" s="3">
-        <v>90700</v>
+        <v>59200</v>
       </c>
       <c r="H41" s="3">
+        <v>74200</v>
+      </c>
+      <c r="I41" s="3">
+        <v>80800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>87200</v>
+      </c>
+      <c r="K41" s="3">
         <v>7400</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1832,8 +2092,17 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,35 +2139,44 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>32200</v>
+        <v>35300</v>
       </c>
       <c r="E43" s="3">
-        <v>32400</v>
+        <v>31600</v>
       </c>
       <c r="F43" s="3">
-        <v>27500</v>
+        <v>37000</v>
       </c>
       <c r="G43" s="3">
-        <v>22200</v>
+        <v>30900</v>
       </c>
       <c r="H43" s="3">
+        <v>31100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>26400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>21300</v>
+      </c>
+      <c r="K43" s="3">
         <v>21000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1908,35 +2186,44 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>29600</v>
+        <v>37900</v>
       </c>
       <c r="E44" s="3">
-        <v>25200</v>
+        <v>35800</v>
       </c>
       <c r="F44" s="3">
-        <v>17900</v>
+        <v>32500</v>
       </c>
       <c r="G44" s="3">
-        <v>18400</v>
+        <v>28400</v>
       </c>
       <c r="H44" s="3">
+        <v>24200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>17200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K44" s="3">
         <v>16900</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1946,35 +2233,44 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6100</v>
+        <v>7700</v>
       </c>
       <c r="E45" s="3">
-        <v>3500</v>
+        <v>8300</v>
       </c>
       <c r="F45" s="3">
-        <v>3700</v>
+        <v>4300</v>
       </c>
       <c r="G45" s="3">
-        <v>5000</v>
+        <v>5900</v>
       </c>
       <c r="H45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K45" s="3">
         <v>11000</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,35 +2280,44 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>129500</v>
+        <v>127900</v>
       </c>
       <c r="E46" s="3">
-        <v>138400</v>
+        <v>133500</v>
       </c>
       <c r="F46" s="3">
-        <v>133300</v>
+        <v>128500</v>
       </c>
       <c r="G46" s="3">
-        <v>136300</v>
+        <v>124500</v>
       </c>
       <c r="H46" s="3">
+        <v>133000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>128100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>131000</v>
+      </c>
+      <c r="K46" s="3">
         <v>56300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,35 +2327,44 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="I47" s="3">
         <v>200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="J47" s="3">
         <v>200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="K47" s="3">
         <v>200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2060,35 +2374,44 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21700</v>
+        <v>21600</v>
       </c>
       <c r="E48" s="3">
-        <v>19300</v>
+        <v>21500</v>
       </c>
       <c r="F48" s="3">
-        <v>17500</v>
+        <v>20500</v>
       </c>
       <c r="G48" s="3">
-        <v>16100</v>
+        <v>20800</v>
       </c>
       <c r="H48" s="3">
+        <v>18600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>16800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K48" s="3">
         <v>17400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,35 +2421,44 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5100</v>
+        <v>3800</v>
       </c>
       <c r="E49" s="3">
-        <v>3700</v>
+        <v>4200</v>
       </c>
       <c r="F49" s="3">
-        <v>4200</v>
+        <v>4500</v>
       </c>
       <c r="G49" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="H49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K49" s="3">
         <v>5400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2136,8 +2468,17 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2515,17 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,35 +2562,44 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2609,17 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,35 +2656,44 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>157100</v>
+        <v>155500</v>
       </c>
       <c r="E54" s="3">
-        <v>162200</v>
+        <v>161200</v>
       </c>
       <c r="F54" s="3">
-        <v>155500</v>
+        <v>154600</v>
       </c>
       <c r="G54" s="3">
-        <v>157800</v>
+        <v>151000</v>
       </c>
       <c r="H54" s="3">
+        <v>155900</v>
+      </c>
+      <c r="I54" s="3">
+        <v>149500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>151600</v>
+      </c>
+      <c r="K54" s="3">
         <v>79500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2326,8 +2703,17 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2728,11 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,35 +2747,38 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31000</v>
+        <v>29400</v>
       </c>
       <c r="E57" s="3">
-        <v>32700</v>
+        <v>33400</v>
       </c>
       <c r="F57" s="3">
-        <v>31800</v>
+        <v>28400</v>
       </c>
       <c r="G57" s="3">
-        <v>26400</v>
+        <v>29800</v>
       </c>
       <c r="H57" s="3">
+        <v>31400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>30500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K57" s="3">
         <v>22100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2396,35 +2788,44 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27200</v>
+        <v>39700</v>
       </c>
       <c r="E58" s="3">
-        <v>27700</v>
+        <v>36500</v>
       </c>
       <c r="F58" s="3">
-        <v>23100</v>
+        <v>32000</v>
       </c>
       <c r="G58" s="3">
-        <v>35200</v>
+        <v>26100</v>
       </c>
       <c r="H58" s="3">
+        <v>26600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>22200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>33800</v>
+      </c>
+      <c r="K58" s="3">
         <v>34900</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,35 +2835,44 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11600</v>
+        <v>16800</v>
       </c>
       <c r="E59" s="3">
-        <v>10600</v>
+        <v>17300</v>
       </c>
       <c r="F59" s="3">
-        <v>10100</v>
+        <v>11100</v>
       </c>
       <c r="G59" s="3">
-        <v>15400</v>
+        <v>11200</v>
       </c>
       <c r="H59" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K59" s="3">
         <v>11000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,35 +2882,44 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>69900</v>
+        <v>85900</v>
       </c>
       <c r="E60" s="3">
-        <v>71000</v>
+        <v>87100</v>
       </c>
       <c r="F60" s="3">
-        <v>64900</v>
+        <v>71500</v>
       </c>
       <c r="G60" s="3">
-        <v>76900</v>
+        <v>67100</v>
       </c>
       <c r="H60" s="3">
+        <v>68200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>62400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>73900</v>
+      </c>
+      <c r="K60" s="3">
         <v>67900</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2510,35 +2929,44 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F61" s="3">
+        <v>9900</v>
+      </c>
+      <c r="G61" s="3">
+        <v>10300</v>
+      </c>
+      <c r="H61" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I61" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K61" s="3">
         <v>10700</v>
       </c>
-      <c r="E61" s="3">
-        <v>10600</v>
-      </c>
-      <c r="F61" s="3">
-        <v>9600</v>
-      </c>
-      <c r="G61" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>10700</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2548,8 +2976,17 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2563,20 +3000,20 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2586,8 +3023,17 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +3070,17 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +3117,17 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,35 +3164,44 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>81200</v>
+        <v>94400</v>
       </c>
       <c r="E66" s="3">
-        <v>82000</v>
+        <v>96400</v>
       </c>
       <c r="F66" s="3">
-        <v>75000</v>
+        <v>82200</v>
       </c>
       <c r="G66" s="3">
-        <v>87300</v>
+        <v>78000</v>
       </c>
       <c r="H66" s="3">
+        <v>78800</v>
+      </c>
+      <c r="I66" s="3">
+        <v>72000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>83900</v>
+      </c>
+      <c r="K66" s="3">
         <v>79900</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +3211,17 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3236,11 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3277,17 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3324,17 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3371,17 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,35 +3418,44 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>70800</v>
+        <v>57800</v>
       </c>
       <c r="E72" s="3">
-        <v>75100</v>
+        <v>61600</v>
       </c>
       <c r="F72" s="3">
-        <v>76300</v>
+        <v>66900</v>
       </c>
       <c r="G72" s="3">
-        <v>65800</v>
+        <v>68000</v>
       </c>
       <c r="H72" s="3">
+        <v>72200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>73300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>63200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2944,8 +3465,17 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3512,17 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3559,17 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,35 +3606,44 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>76000</v>
+        <v>61100</v>
       </c>
       <c r="E76" s="3">
-        <v>80200</v>
+        <v>64800</v>
       </c>
       <c r="F76" s="3">
-        <v>80600</v>
+        <v>72400</v>
       </c>
       <c r="G76" s="3">
-        <v>70500</v>
+        <v>73000</v>
       </c>
       <c r="H76" s="3">
+        <v>77100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>77400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>67700</v>
+      </c>
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3653,17 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3700,116 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5100</v>
+        <v>-3700</v>
       </c>
       <c r="E81" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-12200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,31 +3824,34 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>7300</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3269,8 +3865,17 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3912,17 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3959,17 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +4006,17 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +4053,17 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,31 +4100,40 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3497,8 +4147,17 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,31 +4172,34 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3551,8 +4213,17 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4260,17 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,31 +4307,40 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3665,8 +4354,17 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4379,11 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4420,17 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4467,17 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4514,17 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,31 +4561,40 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>78400</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3871,31 +4608,40 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3909,31 +4655,40 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>74400</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3945,6 +4700,15 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
   <si>
     <t>VIAO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>52600</v>
+        <v>49100</v>
       </c>
       <c r="E8" s="3">
-        <v>46200</v>
+        <v>53800</v>
       </c>
       <c r="F8" s="3">
-        <v>49300</v>
+        <v>47300</v>
       </c>
       <c r="G8" s="3">
-        <v>84900</v>
+        <v>50400</v>
       </c>
       <c r="H8" s="3">
-        <v>41200</v>
+        <v>44600</v>
       </c>
       <c r="I8" s="3">
+        <v>42200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K8" s="3">
+        <v>43500</v>
+      </c>
+      <c r="L8" s="3">
+        <v>67400</v>
+      </c>
+      <c r="M8" s="3">
+        <v>26700</v>
+      </c>
+      <c r="N8" s="3">
+        <v>142400</v>
+      </c>
+      <c r="O8" s="3">
         <v>44000</v>
       </c>
-      <c r="J8" s="3">
-        <v>43500</v>
-      </c>
-      <c r="K8" s="3">
-        <v>67400</v>
-      </c>
-      <c r="L8" s="3">
-        <v>26700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>142400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>44000</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>38400</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>48700</v>
+        <v>44900</v>
       </c>
       <c r="E9" s="3">
-        <v>43400</v>
+        <v>49800</v>
       </c>
       <c r="F9" s="3">
-        <v>42500</v>
+        <v>44400</v>
       </c>
       <c r="G9" s="3">
-        <v>74000</v>
+        <v>43500</v>
       </c>
       <c r="H9" s="3">
-        <v>36500</v>
+        <v>38400</v>
       </c>
       <c r="I9" s="3">
-        <v>36700</v>
+        <v>37400</v>
       </c>
       <c r="J9" s="3">
+        <v>37600</v>
+      </c>
+      <c r="K9" s="3">
         <v>37100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>57300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>132000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>38800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>35300</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3900</v>
+        <v>4200</v>
       </c>
       <c r="E10" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F10" s="3">
         <v>2800</v>
       </c>
-      <c r="F10" s="3">
-        <v>6800</v>
-      </c>
       <c r="G10" s="3">
-        <v>10900</v>
+        <v>6900</v>
       </c>
       <c r="H10" s="3">
-        <v>4700</v>
+        <v>6200</v>
       </c>
       <c r="I10" s="3">
-        <v>7200</v>
+        <v>4800</v>
       </c>
       <c r="J10" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K10" s="3">
         <v>6400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
         <v>1500</v>
       </c>
-      <c r="G12" s="3">
-        <v>3000</v>
-      </c>
       <c r="H12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1068,12 +1091,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
         <v>1400</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>55700</v>
+        <v>50300</v>
       </c>
       <c r="E17" s="3">
-        <v>51800</v>
+        <v>57000</v>
       </c>
       <c r="F17" s="3">
-        <v>49600</v>
+        <v>53000</v>
       </c>
       <c r="G17" s="3">
-        <v>88500</v>
+        <v>50700</v>
       </c>
       <c r="H17" s="3">
-        <v>41700</v>
+        <v>47800</v>
       </c>
       <c r="I17" s="3">
-        <v>47600</v>
+        <v>41400</v>
       </c>
       <c r="J17" s="3">
+        <v>48700</v>
+      </c>
+      <c r="K17" s="3">
         <v>41800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>66900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>27100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>153800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>44600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>41000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3100</v>
+        <v>-1200</v>
       </c>
       <c r="E18" s="3">
-        <v>-5600</v>
+        <v>-3200</v>
       </c>
       <c r="F18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-3600</v>
-      </c>
       <c r="H18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L18" s="3">
+        <v>400</v>
+      </c>
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>400</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,55 +1245,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-600</v>
       </c>
       <c r="H20" s="3">
         <v>-300</v>
       </c>
       <c r="I20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1700</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-500</v>
       </c>
       <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>-500</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1279,35 +1316,38 @@
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>3300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-6300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3400</v>
+        <v>-1600</v>
       </c>
       <c r="E23" s="3">
-        <v>-5600</v>
+        <v>-3500</v>
       </c>
       <c r="F23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-4200</v>
-      </c>
       <c r="H23" s="3">
-        <v>-800</v>
+        <v>-3500</v>
       </c>
       <c r="I23" s="3">
-        <v>-4000</v>
+        <v>400</v>
       </c>
       <c r="J23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
-        <v>700</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>600</v>
       </c>
       <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-800</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3700</v>
+        <v>-1400</v>
       </c>
       <c r="E26" s="3">
-        <v>-5700</v>
+        <v>-3800</v>
       </c>
       <c r="F26" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
-        <v>-4900</v>
-      </c>
       <c r="H26" s="3">
-        <v>-800</v>
+        <v>-4100</v>
       </c>
       <c r="I26" s="3">
-        <v>-5400</v>
+        <v>200</v>
       </c>
       <c r="J26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2200</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3700</v>
+        <v>-1400</v>
       </c>
       <c r="E27" s="3">
-        <v>-5900</v>
+        <v>-3800</v>
       </c>
       <c r="F27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
-        <v>-4900</v>
-      </c>
       <c r="H27" s="3">
-        <v>-800</v>
+        <v>-4100</v>
       </c>
       <c r="I27" s="3">
-        <v>-5400</v>
+        <v>200</v>
       </c>
       <c r="J27" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1900</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>600</v>
       </c>
       <c r="H32" s="3">
         <v>300</v>
       </c>
       <c r="I32" s="3">
+        <v>300</v>
+      </c>
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1700</v>
-      </c>
-      <c r="N32" s="3">
-        <v>500</v>
       </c>
       <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>500</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3700</v>
+        <v>-1400</v>
       </c>
       <c r="E33" s="3">
-        <v>-5900</v>
+        <v>-3800</v>
       </c>
       <c r="F33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
-        <v>-4900</v>
-      </c>
       <c r="H33" s="3">
-        <v>-800</v>
+        <v>-4100</v>
       </c>
       <c r="I33" s="3">
-        <v>-5400</v>
+        <v>200</v>
       </c>
       <c r="J33" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1900</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3700</v>
+        <v>-1400</v>
       </c>
       <c r="E35" s="3">
-        <v>-5900</v>
+        <v>-3800</v>
       </c>
       <c r="F35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
-        <v>-4900</v>
-      </c>
       <c r="H35" s="3">
-        <v>-800</v>
+        <v>-4100</v>
       </c>
       <c r="I35" s="3">
-        <v>-5400</v>
+        <v>200</v>
       </c>
       <c r="J35" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1900</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,38 +2140,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47000</v>
+        <v>54400</v>
       </c>
       <c r="E41" s="3">
-        <v>57900</v>
+        <v>48100</v>
       </c>
       <c r="F41" s="3">
-        <v>54700</v>
+        <v>59200</v>
       </c>
       <c r="G41" s="3">
-        <v>59200</v>
+        <v>55900</v>
       </c>
       <c r="H41" s="3">
-        <v>74200</v>
+        <v>60600</v>
       </c>
       <c r="I41" s="3">
-        <v>80800</v>
+        <v>75900</v>
       </c>
       <c r="J41" s="3">
+        <v>82700</v>
+      </c>
+      <c r="K41" s="3">
         <v>87200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,38 +2238,41 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>35300</v>
+        <v>32400</v>
       </c>
       <c r="E43" s="3">
+        <v>36100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>32400</v>
+      </c>
+      <c r="G43" s="3">
+        <v>37900</v>
+      </c>
+      <c r="H43" s="3">
         <v>31600</v>
       </c>
-      <c r="F43" s="3">
-        <v>37000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>30900</v>
-      </c>
-      <c r="H43" s="3">
-        <v>31100</v>
-      </c>
       <c r="I43" s="3">
-        <v>26400</v>
+        <v>31800</v>
       </c>
       <c r="J43" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K43" s="3">
         <v>21300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,38 +2288,41 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>37900</v>
+        <v>41100</v>
       </c>
       <c r="E44" s="3">
-        <v>35800</v>
+        <v>38800</v>
       </c>
       <c r="F44" s="3">
-        <v>32500</v>
+        <v>36600</v>
       </c>
       <c r="G44" s="3">
-        <v>28400</v>
+        <v>33300</v>
       </c>
       <c r="H44" s="3">
-        <v>24200</v>
+        <v>29100</v>
       </c>
       <c r="I44" s="3">
-        <v>17200</v>
+        <v>24800</v>
       </c>
       <c r="J44" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K44" s="3">
         <v>17700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>16900</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2242,38 +2338,41 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="E45" s="3">
-        <v>8300</v>
+        <v>7900</v>
       </c>
       <c r="F45" s="3">
-        <v>4300</v>
+        <v>8500</v>
       </c>
       <c r="G45" s="3">
-        <v>5900</v>
+        <v>4400</v>
       </c>
       <c r="H45" s="3">
-        <v>3400</v>
+        <v>6000</v>
       </c>
       <c r="I45" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="J45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K45" s="3">
         <v>4800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,38 +2388,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>127900</v>
+        <v>135400</v>
       </c>
       <c r="E46" s="3">
-        <v>133500</v>
+        <v>130900</v>
       </c>
       <c r="F46" s="3">
-        <v>128500</v>
+        <v>136600</v>
       </c>
       <c r="G46" s="3">
-        <v>124500</v>
+        <v>131500</v>
       </c>
       <c r="H46" s="3">
-        <v>133000</v>
+        <v>127400</v>
       </c>
       <c r="I46" s="3">
-        <v>128100</v>
+        <v>136100</v>
       </c>
       <c r="J46" s="3">
+        <v>131100</v>
+      </c>
+      <c r="K46" s="3">
         <v>131000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>56300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,28 +2438,31 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="E47" s="3">
         <v>1100</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>100</v>
       </c>
       <c r="I47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J47" s="3">
         <v>200</v>
@@ -2365,8 +2470,8 @@
       <c r="K47" s="3">
         <v>200</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>200</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -2383,38 +2488,41 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21600</v>
+        <v>21800</v>
       </c>
       <c r="E48" s="3">
-        <v>21500</v>
+        <v>22200</v>
       </c>
       <c r="F48" s="3">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="G48" s="3">
-        <v>20800</v>
+        <v>21000</v>
       </c>
       <c r="H48" s="3">
-        <v>18600</v>
+        <v>21300</v>
       </c>
       <c r="I48" s="3">
-        <v>16800</v>
+        <v>19000</v>
       </c>
       <c r="J48" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K48" s="3">
         <v>15500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,38 +2538,41 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="E49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G49" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H49" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J49" s="3">
         <v>4200</v>
       </c>
-      <c r="F49" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G49" s="3">
-        <v>4900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I49" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,38 +2688,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>700</v>
       </c>
       <c r="H52" s="3">
         <v>700</v>
       </c>
       <c r="I52" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
       </c>
       <c r="K52" s="3">
+        <v>400</v>
+      </c>
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,38 +2788,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>155500</v>
+        <v>163400</v>
       </c>
       <c r="E54" s="3">
-        <v>161200</v>
+        <v>159100</v>
       </c>
       <c r="F54" s="3">
-        <v>154600</v>
+        <v>165000</v>
       </c>
       <c r="G54" s="3">
-        <v>151000</v>
+        <v>158200</v>
       </c>
       <c r="H54" s="3">
-        <v>155900</v>
+        <v>154500</v>
       </c>
       <c r="I54" s="3">
-        <v>149500</v>
+        <v>159600</v>
       </c>
       <c r="J54" s="3">
+        <v>153000</v>
+      </c>
+      <c r="K54" s="3">
         <v>151600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>79500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,38 +2880,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>29400</v>
+        <v>33800</v>
       </c>
       <c r="E57" s="3">
-        <v>33400</v>
+        <v>30100</v>
       </c>
       <c r="F57" s="3">
-        <v>28400</v>
+        <v>34100</v>
       </c>
       <c r="G57" s="3">
-        <v>29800</v>
+        <v>29100</v>
       </c>
       <c r="H57" s="3">
-        <v>31400</v>
+        <v>30500</v>
       </c>
       <c r="I57" s="3">
-        <v>30500</v>
+        <v>32200</v>
       </c>
       <c r="J57" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K57" s="3">
         <v>25300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,38 +2928,41 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>39700</v>
+        <v>42600</v>
       </c>
       <c r="E58" s="3">
-        <v>36500</v>
+        <v>40600</v>
       </c>
       <c r="F58" s="3">
-        <v>32000</v>
+        <v>37300</v>
       </c>
       <c r="G58" s="3">
-        <v>26100</v>
+        <v>32800</v>
       </c>
       <c r="H58" s="3">
-        <v>26600</v>
+        <v>26700</v>
       </c>
       <c r="I58" s="3">
-        <v>22200</v>
+        <v>27300</v>
       </c>
       <c r="J58" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K58" s="3">
         <v>33800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>34900</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2844,38 +2978,41 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16800</v>
+        <v>19800</v>
       </c>
       <c r="E59" s="3">
-        <v>17300</v>
+        <v>17100</v>
       </c>
       <c r="F59" s="3">
-        <v>11100</v>
+        <v>17700</v>
       </c>
       <c r="G59" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="H59" s="3">
-        <v>10200</v>
+        <v>11400</v>
       </c>
       <c r="I59" s="3">
-        <v>9700</v>
+        <v>10400</v>
       </c>
       <c r="J59" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K59" s="3">
         <v>14800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2891,38 +3028,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>85900</v>
+        <v>96200</v>
       </c>
       <c r="E60" s="3">
-        <v>87100</v>
+        <v>87900</v>
       </c>
       <c r="F60" s="3">
-        <v>71500</v>
+        <v>89200</v>
       </c>
       <c r="G60" s="3">
-        <v>67100</v>
+        <v>73200</v>
       </c>
       <c r="H60" s="3">
-        <v>68200</v>
+        <v>68700</v>
       </c>
       <c r="I60" s="3">
-        <v>62400</v>
+        <v>69800</v>
       </c>
       <c r="J60" s="3">
+        <v>63900</v>
+      </c>
+      <c r="K60" s="3">
         <v>73900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>67900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2938,38 +3078,41 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7900</v>
+        <v>7000</v>
       </c>
       <c r="E61" s="3">
-        <v>8600</v>
+        <v>8100</v>
       </c>
       <c r="F61" s="3">
-        <v>9900</v>
+        <v>8800</v>
       </c>
       <c r="G61" s="3">
-        <v>10300</v>
+        <v>10100</v>
       </c>
       <c r="H61" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="I61" s="3">
-        <v>9200</v>
+        <v>10400</v>
       </c>
       <c r="J61" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K61" s="3">
         <v>9600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2985,13 +3128,16 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -3009,14 +3155,14 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,38 +3328,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>94400</v>
+        <v>104000</v>
       </c>
       <c r="E66" s="3">
-        <v>96400</v>
+        <v>96600</v>
       </c>
       <c r="F66" s="3">
-        <v>82200</v>
+        <v>98700</v>
       </c>
       <c r="G66" s="3">
-        <v>78000</v>
+        <v>84100</v>
       </c>
       <c r="H66" s="3">
-        <v>78800</v>
+        <v>79800</v>
       </c>
       <c r="I66" s="3">
-        <v>72000</v>
+        <v>80600</v>
       </c>
       <c r="J66" s="3">
+        <v>73700</v>
+      </c>
+      <c r="K66" s="3">
         <v>83900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>79900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,38 +3598,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>57800</v>
+        <v>57700</v>
       </c>
       <c r="E72" s="3">
-        <v>61600</v>
+        <v>59200</v>
       </c>
       <c r="F72" s="3">
-        <v>66900</v>
+        <v>63000</v>
       </c>
       <c r="G72" s="3">
-        <v>68000</v>
+        <v>68500</v>
       </c>
       <c r="H72" s="3">
-        <v>72200</v>
+        <v>69600</v>
       </c>
       <c r="I72" s="3">
-        <v>73300</v>
+        <v>73900</v>
       </c>
       <c r="J72" s="3">
+        <v>75000</v>
+      </c>
+      <c r="K72" s="3">
         <v>63200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,38 +3798,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>61100</v>
+        <v>59400</v>
       </c>
       <c r="E76" s="3">
-        <v>64800</v>
+        <v>62600</v>
       </c>
       <c r="F76" s="3">
-        <v>72400</v>
+        <v>66300</v>
       </c>
       <c r="G76" s="3">
-        <v>73000</v>
+        <v>74100</v>
       </c>
       <c r="H76" s="3">
-        <v>77100</v>
+        <v>74700</v>
       </c>
       <c r="I76" s="3">
-        <v>77400</v>
+        <v>78900</v>
       </c>
       <c r="J76" s="3">
+        <v>79200</v>
+      </c>
+      <c r="K76" s="3">
         <v>67700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3700</v>
+        <v>-1400</v>
       </c>
       <c r="E81" s="3">
-        <v>-5900</v>
+        <v>-3800</v>
       </c>
       <c r="F81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
-        <v>-4900</v>
-      </c>
       <c r="H81" s="3">
-        <v>-800</v>
+        <v>-4100</v>
       </c>
       <c r="I81" s="3">
-        <v>-5400</v>
+        <v>200</v>
       </c>
       <c r="J81" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1900</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3853,8 +4052,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4135,8 +4352,8 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4201,8 +4422,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4342,8 +4572,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4596,8 +4842,8 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4643,8 +4892,8 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -4664,8 +4913,11 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4690,8 +4942,8 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
@@ -4709,6 +4961,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
   <si>
     <t>VIAO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>49100</v>
+        <v>66500</v>
       </c>
       <c r="E8" s="3">
-        <v>53800</v>
+        <v>50900</v>
       </c>
       <c r="F8" s="3">
-        <v>47300</v>
+        <v>55800</v>
       </c>
       <c r="G8" s="3">
-        <v>50400</v>
+        <v>49000</v>
       </c>
       <c r="H8" s="3">
-        <v>44600</v>
+        <v>52300</v>
       </c>
       <c r="I8" s="3">
-        <v>42200</v>
+        <v>46200</v>
       </c>
       <c r="J8" s="3">
+        <v>43700</v>
+      </c>
+      <c r="K8" s="3">
         <v>45000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>43500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>67400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>142400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>44000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>38400</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>44900</v>
+        <v>60800</v>
       </c>
       <c r="E9" s="3">
-        <v>49800</v>
+        <v>46600</v>
       </c>
       <c r="F9" s="3">
-        <v>44400</v>
+        <v>51600</v>
       </c>
       <c r="G9" s="3">
-        <v>43500</v>
+        <v>46000</v>
       </c>
       <c r="H9" s="3">
-        <v>38400</v>
+        <v>45100</v>
       </c>
       <c r="I9" s="3">
-        <v>37400</v>
+        <v>39800</v>
       </c>
       <c r="J9" s="3">
+        <v>38700</v>
+      </c>
+      <c r="K9" s="3">
         <v>37600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>37100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>57300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>132000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>38800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>35300</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>4200</v>
+        <v>5700</v>
       </c>
       <c r="E10" s="3">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="F10" s="3">
-        <v>2800</v>
+        <v>4100</v>
       </c>
       <c r="G10" s="3">
-        <v>6900</v>
+        <v>3000</v>
       </c>
       <c r="H10" s="3">
-        <v>6200</v>
+        <v>7200</v>
       </c>
       <c r="I10" s="3">
-        <v>4800</v>
+        <v>6500</v>
       </c>
       <c r="J10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K10" s="3">
         <v>7400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K12" s="3">
         <v>1700</v>
       </c>
-      <c r="E12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1094,12 +1117,12 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3">
         <v>1400</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>50300</v>
+        <v>64300</v>
       </c>
       <c r="E17" s="3">
-        <v>57000</v>
+        <v>52200</v>
       </c>
       <c r="F17" s="3">
-        <v>53000</v>
+        <v>59000</v>
       </c>
       <c r="G17" s="3">
-        <v>50700</v>
+        <v>54900</v>
       </c>
       <c r="H17" s="3">
-        <v>47800</v>
+        <v>51500</v>
       </c>
       <c r="I17" s="3">
-        <v>41400</v>
+        <v>49500</v>
       </c>
       <c r="J17" s="3">
+        <v>43000</v>
+      </c>
+      <c r="K17" s="3">
         <v>48700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>66900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>27100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>153800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>44600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>41000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1200</v>
+        <v>2200</v>
       </c>
       <c r="E18" s="3">
-        <v>-3200</v>
+        <v>-1300</v>
       </c>
       <c r="F18" s="3">
-        <v>-5700</v>
+        <v>-3300</v>
       </c>
       <c r="G18" s="3">
-        <v>-300</v>
+        <v>-5900</v>
       </c>
       <c r="H18" s="3">
-        <v>-3200</v>
+        <v>700</v>
       </c>
       <c r="I18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J18" s="3">
         <v>700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,58 +1279,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-300</v>
       </c>
       <c r="I20" s="3">
         <v>-300</v>
       </c>
       <c r="J20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1700</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-500</v>
       </c>
       <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>-500</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1319,35 +1356,38 @@
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>3100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>3300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-6300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,108 +1436,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1600</v>
+        <v>1700</v>
       </c>
       <c r="E23" s="3">
-        <v>-3500</v>
+        <v>-1700</v>
       </c>
       <c r="F23" s="3">
-        <v>-5700</v>
+        <v>-3600</v>
       </c>
       <c r="G23" s="3">
-        <v>-500</v>
+        <v>-5900</v>
       </c>
       <c r="H23" s="3">
-        <v>-3500</v>
+        <v>500</v>
       </c>
       <c r="I23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>400</v>
-      </c>
       <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-800</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1400</v>
+        <v>1300</v>
       </c>
       <c r="E26" s="3">
-        <v>-3800</v>
+        <v>-1500</v>
       </c>
       <c r="F26" s="3">
-        <v>-5800</v>
+        <v>-3900</v>
       </c>
       <c r="G26" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1400</v>
+        <v>1300</v>
       </c>
       <c r="E27" s="3">
-        <v>-3800</v>
+        <v>-1500</v>
       </c>
       <c r="F27" s="3">
-        <v>-6100</v>
+        <v>-3900</v>
       </c>
       <c r="G27" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>300</v>
       </c>
       <c r="I32" s="3">
         <v>300</v>
       </c>
       <c r="J32" s="3">
+        <v>300</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1700</v>
-      </c>
-      <c r="O32" s="3">
-        <v>500</v>
       </c>
       <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>500</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1400</v>
+        <v>1300</v>
       </c>
       <c r="E33" s="3">
-        <v>-3800</v>
+        <v>-1500</v>
       </c>
       <c r="F33" s="3">
-        <v>-6100</v>
+        <v>-3900</v>
       </c>
       <c r="G33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-900</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1400</v>
+        <v>1300</v>
       </c>
       <c r="E35" s="3">
-        <v>-3800</v>
+        <v>-1500</v>
       </c>
       <c r="F35" s="3">
-        <v>-6100</v>
+        <v>-3900</v>
       </c>
       <c r="G35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-900</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,41 +2227,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>54400</v>
+        <v>57400</v>
       </c>
       <c r="E41" s="3">
-        <v>48100</v>
+        <v>56400</v>
       </c>
       <c r="F41" s="3">
-        <v>59200</v>
+        <v>49800</v>
       </c>
       <c r="G41" s="3">
-        <v>55900</v>
+        <v>61400</v>
       </c>
       <c r="H41" s="3">
-        <v>60600</v>
+        <v>58000</v>
       </c>
       <c r="I41" s="3">
-        <v>75900</v>
+        <v>62800</v>
       </c>
       <c r="J41" s="3">
+        <v>78700</v>
+      </c>
+      <c r="K41" s="3">
         <v>82700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>87200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7400</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,41 +2331,44 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>32400</v>
+        <v>35900</v>
       </c>
       <c r="E43" s="3">
-        <v>36100</v>
+        <v>33500</v>
       </c>
       <c r="F43" s="3">
-        <v>32400</v>
+        <v>37500</v>
       </c>
       <c r="G43" s="3">
-        <v>37900</v>
+        <v>33500</v>
       </c>
       <c r="H43" s="3">
-        <v>31600</v>
+        <v>39300</v>
       </c>
       <c r="I43" s="3">
-        <v>31800</v>
+        <v>32800</v>
       </c>
       <c r="J43" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K43" s="3">
         <v>27100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2291,41 +2384,44 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>41100</v>
+        <v>33900</v>
       </c>
       <c r="E44" s="3">
-        <v>38800</v>
+        <v>42600</v>
       </c>
       <c r="F44" s="3">
-        <v>36600</v>
+        <v>40200</v>
       </c>
       <c r="G44" s="3">
-        <v>33300</v>
+        <v>37900</v>
       </c>
       <c r="H44" s="3">
-        <v>29100</v>
+        <v>34500</v>
       </c>
       <c r="I44" s="3">
-        <v>24800</v>
+        <v>30200</v>
       </c>
       <c r="J44" s="3">
+        <v>25700</v>
+      </c>
+      <c r="K44" s="3">
         <v>17600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>17700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>16900</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2341,41 +2437,44 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7500</v>
+        <v>9100</v>
       </c>
       <c r="E45" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="F45" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="G45" s="3">
-        <v>4400</v>
+        <v>8800</v>
       </c>
       <c r="H45" s="3">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="I45" s="3">
-        <v>3500</v>
+        <v>6200</v>
       </c>
       <c r="J45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K45" s="3">
         <v>3700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11000</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,41 +2490,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>135400</v>
+        <v>136300</v>
       </c>
       <c r="E46" s="3">
-        <v>130900</v>
+        <v>140300</v>
       </c>
       <c r="F46" s="3">
-        <v>136600</v>
+        <v>135600</v>
       </c>
       <c r="G46" s="3">
-        <v>131500</v>
+        <v>141600</v>
       </c>
       <c r="H46" s="3">
-        <v>127400</v>
+        <v>136300</v>
       </c>
       <c r="I46" s="3">
-        <v>136100</v>
+        <v>132000</v>
       </c>
       <c r="J46" s="3">
+        <v>141000</v>
+      </c>
+      <c r="K46" s="3">
         <v>131100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>131000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>56300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,31 +2543,34 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E47" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="F47" s="3">
         <v>1200</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="H47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>100</v>
       </c>
       <c r="J47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K47" s="3">
         <v>200</v>
@@ -2473,8 +2578,8 @@
       <c r="L47" s="3">
         <v>200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="M47" s="3">
+        <v>200</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
@@ -2491,41 +2596,44 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>23000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>22800</v>
+      </c>
+      <c r="H48" s="3">
         <v>21800</v>
       </c>
-      <c r="E48" s="3">
-        <v>22200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>22000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>21000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>21300</v>
-      </c>
       <c r="I48" s="3">
-        <v>19000</v>
+        <v>22100</v>
       </c>
       <c r="J48" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K48" s="3">
         <v>17200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,41 +2649,44 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="E49" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="F49" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="G49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I49" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K49" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L49" s="3">
         <v>4600</v>
       </c>
-      <c r="H49" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="K49" s="3">
-        <v>4600</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,41 +2808,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E52" s="3">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G52" s="3">
         <v>1000</v>
       </c>
-      <c r="G52" s="3">
-        <v>1100</v>
-      </c>
       <c r="H52" s="3">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="I52" s="3">
         <v>700</v>
       </c>
       <c r="J52" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
       </c>
       <c r="L52" s="3">
+        <v>400</v>
+      </c>
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,41 +2914,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>163400</v>
+        <v>164600</v>
       </c>
       <c r="E54" s="3">
-        <v>159100</v>
+        <v>169400</v>
       </c>
       <c r="F54" s="3">
-        <v>165000</v>
+        <v>164900</v>
       </c>
       <c r="G54" s="3">
-        <v>158200</v>
+        <v>171000</v>
       </c>
       <c r="H54" s="3">
-        <v>154500</v>
+        <v>164000</v>
       </c>
       <c r="I54" s="3">
-        <v>159600</v>
+        <v>160200</v>
       </c>
       <c r="J54" s="3">
+        <v>165400</v>
+      </c>
+      <c r="K54" s="3">
         <v>153000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>151600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>79500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,41 +3011,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>33800</v>
+        <v>29000</v>
       </c>
       <c r="E57" s="3">
-        <v>30100</v>
+        <v>35000</v>
       </c>
       <c r="F57" s="3">
-        <v>34100</v>
+        <v>31200</v>
       </c>
       <c r="G57" s="3">
-        <v>29100</v>
+        <v>35400</v>
       </c>
       <c r="H57" s="3">
-        <v>30500</v>
+        <v>30200</v>
       </c>
       <c r="I57" s="3">
-        <v>32200</v>
+        <v>31600</v>
       </c>
       <c r="J57" s="3">
+        <v>33300</v>
+      </c>
+      <c r="K57" s="3">
         <v>31200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>25300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>22100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,41 +3062,44 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>42600</v>
+        <v>43400</v>
       </c>
       <c r="E58" s="3">
-        <v>40600</v>
+        <v>44100</v>
       </c>
       <c r="F58" s="3">
-        <v>37300</v>
+        <v>42100</v>
       </c>
       <c r="G58" s="3">
-        <v>32800</v>
+        <v>38700</v>
       </c>
       <c r="H58" s="3">
-        <v>26700</v>
+        <v>34000</v>
       </c>
       <c r="I58" s="3">
-        <v>27300</v>
+        <v>27700</v>
       </c>
       <c r="J58" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K58" s="3">
         <v>22700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>33800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>34900</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,41 +3115,44 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19800</v>
+        <v>22100</v>
       </c>
       <c r="E59" s="3">
-        <v>17100</v>
+        <v>20500</v>
       </c>
       <c r="F59" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="G59" s="3">
-        <v>11300</v>
+        <v>18300</v>
       </c>
       <c r="H59" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="I59" s="3">
-        <v>10400</v>
+        <v>11800</v>
       </c>
       <c r="J59" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K59" s="3">
         <v>9900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,41 +3168,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>96200</v>
+        <v>94500</v>
       </c>
       <c r="E60" s="3">
-        <v>87900</v>
+        <v>99700</v>
       </c>
       <c r="F60" s="3">
-        <v>89200</v>
+        <v>91100</v>
       </c>
       <c r="G60" s="3">
-        <v>73200</v>
+        <v>92400</v>
       </c>
       <c r="H60" s="3">
-        <v>68700</v>
+        <v>75900</v>
       </c>
       <c r="I60" s="3">
-        <v>69800</v>
+        <v>71200</v>
       </c>
       <c r="J60" s="3">
+        <v>72400</v>
+      </c>
+      <c r="K60" s="3">
         <v>63900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>73900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>67900</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,41 +3221,44 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7000</v>
+        <v>8700</v>
       </c>
       <c r="E61" s="3">
-        <v>8100</v>
+        <v>7300</v>
       </c>
       <c r="F61" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="G61" s="3">
-        <v>10100</v>
+        <v>9100</v>
       </c>
       <c r="H61" s="3">
         <v>10500</v>
       </c>
       <c r="I61" s="3">
-        <v>10400</v>
+        <v>10900</v>
       </c>
       <c r="J61" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K61" s="3">
         <v>9500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3131,22 +3274,25 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -3158,14 +3304,14 @@
         <v>100</v>
       </c>
       <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,41 +3486,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>104000</v>
+        <v>103700</v>
       </c>
       <c r="E66" s="3">
-        <v>96600</v>
+        <v>107800</v>
       </c>
       <c r="F66" s="3">
-        <v>98700</v>
+        <v>100100</v>
       </c>
       <c r="G66" s="3">
-        <v>84100</v>
+        <v>102300</v>
       </c>
       <c r="H66" s="3">
-        <v>79800</v>
+        <v>87200</v>
       </c>
       <c r="I66" s="3">
-        <v>80600</v>
+        <v>82700</v>
       </c>
       <c r="J66" s="3">
+        <v>83600</v>
+      </c>
+      <c r="K66" s="3">
         <v>73700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>83900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>79900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,41 +3772,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>57700</v>
+        <v>61300</v>
       </c>
       <c r="E72" s="3">
-        <v>59200</v>
+        <v>59800</v>
       </c>
       <c r="F72" s="3">
-        <v>63000</v>
+        <v>61400</v>
       </c>
       <c r="G72" s="3">
-        <v>68500</v>
+        <v>65300</v>
       </c>
       <c r="H72" s="3">
-        <v>69600</v>
+        <v>71000</v>
       </c>
       <c r="I72" s="3">
-        <v>73900</v>
+        <v>72200</v>
       </c>
       <c r="J72" s="3">
+        <v>76600</v>
+      </c>
+      <c r="K72" s="3">
         <v>75000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>63200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,41 +3984,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>59400</v>
+        <v>60900</v>
       </c>
       <c r="E76" s="3">
-        <v>62600</v>
+        <v>61600</v>
       </c>
       <c r="F76" s="3">
-        <v>66300</v>
+        <v>64900</v>
       </c>
       <c r="G76" s="3">
-        <v>74100</v>
+        <v>68800</v>
       </c>
       <c r="H76" s="3">
-        <v>74700</v>
+        <v>76800</v>
       </c>
       <c r="I76" s="3">
-        <v>78900</v>
+        <v>77400</v>
       </c>
       <c r="J76" s="3">
+        <v>81800</v>
+      </c>
+      <c r="K76" s="3">
         <v>79200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>67700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1400</v>
+        <v>1300</v>
       </c>
       <c r="E81" s="3">
-        <v>-3800</v>
+        <v>-1500</v>
       </c>
       <c r="F81" s="3">
-        <v>-6100</v>
+        <v>-3900</v>
       </c>
       <c r="G81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="L81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-900</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4055,8 +4254,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4540,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4355,8 +4572,8 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -4376,8 +4593,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4425,8 +4646,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4575,8 +4805,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5059,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4845,8 +5091,8 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4866,8 +5112,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4895,8 +5144,8 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -4916,8 +5165,11 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4945,8 +5197,8 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -4964,6 +5216,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
   <si>
     <t>VIAO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>66500</v>
+        <v>59100</v>
       </c>
       <c r="E8" s="3">
-        <v>50900</v>
+        <v>67700</v>
       </c>
       <c r="F8" s="3">
-        <v>55800</v>
+        <v>51800</v>
       </c>
       <c r="G8" s="3">
-        <v>49000</v>
+        <v>56800</v>
       </c>
       <c r="H8" s="3">
-        <v>52300</v>
+        <v>49900</v>
       </c>
       <c r="I8" s="3">
-        <v>46200</v>
+        <v>53200</v>
       </c>
       <c r="J8" s="3">
+        <v>47100</v>
+      </c>
+      <c r="K8" s="3">
         <v>43700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>45000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>43500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>67400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>142400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>44000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>38400</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>60800</v>
+        <v>49300</v>
       </c>
       <c r="E9" s="3">
-        <v>46600</v>
+        <v>61900</v>
       </c>
       <c r="F9" s="3">
-        <v>51600</v>
+        <v>47400</v>
       </c>
       <c r="G9" s="3">
-        <v>46000</v>
+        <v>52600</v>
       </c>
       <c r="H9" s="3">
-        <v>45100</v>
+        <v>46900</v>
       </c>
       <c r="I9" s="3">
-        <v>39800</v>
+        <v>45900</v>
       </c>
       <c r="J9" s="3">
+        <v>40500</v>
+      </c>
+      <c r="K9" s="3">
         <v>38700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>37600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>37100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>57300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>132000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>38800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>35300</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>5700</v>
+        <v>9800</v>
       </c>
       <c r="E10" s="3">
-        <v>4300</v>
+        <v>5800</v>
       </c>
       <c r="F10" s="3">
-        <v>4100</v>
+        <v>4400</v>
       </c>
       <c r="G10" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H10" s="3">
         <v>3000</v>
       </c>
-      <c r="H10" s="3">
-        <v>7200</v>
-      </c>
       <c r="I10" s="3">
-        <v>6500</v>
+        <v>7300</v>
       </c>
       <c r="J10" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K10" s="3">
         <v>5000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3100</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1600</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3">
         <v>1600</v>
       </c>
-      <c r="I12" s="3">
-        <v>2100</v>
-      </c>
       <c r="J12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K12" s="3">
         <v>1100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1120,12 +1142,12 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3">
         <v>1400</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>64300</v>
+        <v>63900</v>
       </c>
       <c r="E17" s="3">
-        <v>52200</v>
+        <v>65500</v>
       </c>
       <c r="F17" s="3">
-        <v>59000</v>
+        <v>53100</v>
       </c>
       <c r="G17" s="3">
-        <v>54900</v>
+        <v>60100</v>
       </c>
       <c r="H17" s="3">
-        <v>51500</v>
+        <v>55900</v>
       </c>
       <c r="I17" s="3">
-        <v>49500</v>
+        <v>52400</v>
       </c>
       <c r="J17" s="3">
+        <v>50400</v>
+      </c>
+      <c r="K17" s="3">
         <v>43000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>48700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>41800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>66900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>27100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>153800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>44600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>41000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2200</v>
+        <v>-4700</v>
       </c>
       <c r="E18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-5900</v>
-      </c>
       <c r="H18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K18" s="3">
         <v>700</v>
       </c>
-      <c r="I18" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>700</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2600</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-300</v>
       </c>
       <c r="J20" s="3">
         <v>-300</v>
       </c>
       <c r="K20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-500</v>
       </c>
       <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>-500</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1359,35 +1395,38 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>3100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>3300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-6300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E23" s="3">
         <v>1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
-        <v>-3600</v>
-      </c>
       <c r="G23" s="3">
-        <v>-5900</v>
+        <v>-3700</v>
       </c>
       <c r="H23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
-        <v>-3600</v>
-      </c>
       <c r="J23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-800</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
-        <v>-3900</v>
-      </c>
       <c r="G26" s="3">
-        <v>-6000</v>
+        <v>-4000</v>
       </c>
       <c r="H26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
-        <v>-4200</v>
-      </c>
       <c r="J26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-13900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2200</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
-        <v>-3900</v>
-      </c>
       <c r="G27" s="3">
-        <v>-6300</v>
+        <v>-4000</v>
       </c>
       <c r="H27" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
-        <v>-4200</v>
-      </c>
       <c r="J27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>300</v>
       </c>
       <c r="J32" s="3">
         <v>300</v>
       </c>
       <c r="K32" s="3">
+        <v>300</v>
+      </c>
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>500</v>
       </c>
       <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>500</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
-        <v>-3900</v>
-      </c>
       <c r="G33" s="3">
-        <v>-6300</v>
+        <v>-4000</v>
       </c>
       <c r="H33" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
-        <v>-4200</v>
-      </c>
       <c r="J33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1900</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
-        <v>-3900</v>
-      </c>
       <c r="G35" s="3">
-        <v>-6300</v>
+        <v>-4000</v>
       </c>
       <c r="H35" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
-        <v>-4200</v>
-      </c>
       <c r="J35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1900</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,44 +2313,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>58500</v>
+      </c>
+      <c r="F41" s="3">
         <v>57400</v>
       </c>
-      <c r="E41" s="3">
-        <v>56400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>49800</v>
-      </c>
       <c r="G41" s="3">
-        <v>61400</v>
+        <v>50700</v>
       </c>
       <c r="H41" s="3">
-        <v>58000</v>
+        <v>62500</v>
       </c>
       <c r="I41" s="3">
-        <v>62800</v>
+        <v>59000</v>
       </c>
       <c r="J41" s="3">
+        <v>64000</v>
+      </c>
+      <c r="K41" s="3">
         <v>78700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>82700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>87200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7400</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2281,31 +2367,34 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>8600</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2334,44 +2423,47 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>35900</v>
+        <v>25400</v>
       </c>
       <c r="E43" s="3">
-        <v>33500</v>
+        <v>36500</v>
       </c>
       <c r="F43" s="3">
-        <v>37500</v>
+        <v>34100</v>
       </c>
       <c r="G43" s="3">
-        <v>33500</v>
+        <v>38100</v>
       </c>
       <c r="H43" s="3">
-        <v>39300</v>
+        <v>34100</v>
       </c>
       <c r="I43" s="3">
-        <v>32800</v>
+        <v>40000</v>
       </c>
       <c r="J43" s="3">
+        <v>33400</v>
+      </c>
+      <c r="K43" s="3">
         <v>33000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>21000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2387,44 +2479,47 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>33900</v>
+        <v>23800</v>
       </c>
       <c r="E44" s="3">
-        <v>42600</v>
+        <v>34500</v>
       </c>
       <c r="F44" s="3">
-        <v>40200</v>
+        <v>43400</v>
       </c>
       <c r="G44" s="3">
-        <v>37900</v>
+        <v>40900</v>
       </c>
       <c r="H44" s="3">
-        <v>34500</v>
+        <v>38600</v>
       </c>
       <c r="I44" s="3">
-        <v>30200</v>
+        <v>35100</v>
       </c>
       <c r="J44" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K44" s="3">
         <v>25700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>17600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>17700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>16900</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,44 +2535,47 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9100</v>
+        <v>13200</v>
       </c>
       <c r="E45" s="3">
-        <v>7700</v>
+        <v>9300</v>
       </c>
       <c r="F45" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="G45" s="3">
-        <v>8800</v>
+        <v>8300</v>
       </c>
       <c r="H45" s="3">
-        <v>4500</v>
+        <v>8900</v>
       </c>
       <c r="I45" s="3">
-        <v>6200</v>
+        <v>4600</v>
       </c>
       <c r="J45" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K45" s="3">
         <v>3600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11000</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,44 +2591,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>136300</v>
+        <v>118900</v>
       </c>
       <c r="E46" s="3">
-        <v>140300</v>
+        <v>138700</v>
       </c>
       <c r="F46" s="3">
-        <v>135600</v>
+        <v>142800</v>
       </c>
       <c r="G46" s="3">
-        <v>141600</v>
+        <v>138100</v>
       </c>
       <c r="H46" s="3">
-        <v>136300</v>
+        <v>144100</v>
       </c>
       <c r="I46" s="3">
-        <v>132000</v>
+        <v>138700</v>
       </c>
       <c r="J46" s="3">
+        <v>134400</v>
+      </c>
+      <c r="K46" s="3">
         <v>141000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>131100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>131000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>56300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2546,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2558,22 +2662,22 @@
         <v>1400</v>
       </c>
       <c r="F47" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="G47" s="3">
         <v>1200</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>100</v>
       </c>
       <c r="K47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L47" s="3">
         <v>200</v>
@@ -2581,8 +2685,8 @@
       <c r="M47" s="3">
         <v>200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>200</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
@@ -2599,44 +2703,47 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22400</v>
+        <v>22500</v>
       </c>
       <c r="E48" s="3">
-        <v>22600</v>
+        <v>22800</v>
       </c>
       <c r="F48" s="3">
         <v>23000</v>
       </c>
       <c r="G48" s="3">
-        <v>22800</v>
+        <v>23400</v>
       </c>
       <c r="H48" s="3">
-        <v>21800</v>
+        <v>23200</v>
       </c>
       <c r="I48" s="3">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="J48" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K48" s="3">
         <v>19700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,44 +2759,47 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E49" s="3">
         <v>3300</v>
       </c>
-      <c r="E49" s="3">
-        <v>3600</v>
-      </c>
       <c r="F49" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="G49" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="H49" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I49" s="3">
         <v>4800</v>
       </c>
-      <c r="I49" s="3">
-        <v>5200</v>
-      </c>
       <c r="J49" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K49" s="3">
         <v>3800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,44 +2927,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
+        <v>800</v>
+      </c>
+      <c r="K52" s="3">
         <v>700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>700</v>
-      </c>
-      <c r="K52" s="3">
-        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>400</v>
       </c>
       <c r="M52" s="3">
+        <v>400</v>
+      </c>
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,44 +3039,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>164600</v>
+        <v>146800</v>
       </c>
       <c r="E54" s="3">
-        <v>169400</v>
+        <v>167600</v>
       </c>
       <c r="F54" s="3">
-        <v>164900</v>
+        <v>172400</v>
       </c>
       <c r="G54" s="3">
-        <v>171000</v>
+        <v>167900</v>
       </c>
       <c r="H54" s="3">
-        <v>164000</v>
+        <v>174100</v>
       </c>
       <c r="I54" s="3">
-        <v>160200</v>
+        <v>166900</v>
       </c>
       <c r="J54" s="3">
+        <v>163000</v>
+      </c>
+      <c r="K54" s="3">
         <v>165400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>153000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>151600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>79500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2970,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,44 +3141,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>29000</v>
+        <v>29200</v>
       </c>
       <c r="E57" s="3">
-        <v>35000</v>
+        <v>29500</v>
       </c>
       <c r="F57" s="3">
+        <v>35600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>31800</v>
+      </c>
+      <c r="H57" s="3">
+        <v>36000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>30700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>32200</v>
+      </c>
+      <c r="K57" s="3">
+        <v>33300</v>
+      </c>
+      <c r="L57" s="3">
         <v>31200</v>
       </c>
-      <c r="G57" s="3">
-        <v>35400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>30200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>31600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>33300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>31200</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>25300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>22100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3065,44 +3195,47 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>43400</v>
+        <v>34100</v>
       </c>
       <c r="E58" s="3">
-        <v>44100</v>
+        <v>44200</v>
       </c>
       <c r="F58" s="3">
-        <v>42100</v>
+        <v>44900</v>
       </c>
       <c r="G58" s="3">
-        <v>38700</v>
+        <v>42900</v>
       </c>
       <c r="H58" s="3">
-        <v>34000</v>
+        <v>39400</v>
       </c>
       <c r="I58" s="3">
-        <v>27700</v>
+        <v>34600</v>
       </c>
       <c r="J58" s="3">
         <v>28200</v>
       </c>
       <c r="K58" s="3">
+        <v>28200</v>
+      </c>
+      <c r="L58" s="3">
         <v>22700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>33800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>34900</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,44 +3251,47 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>22100</v>
+        <v>18700</v>
       </c>
       <c r="E59" s="3">
-        <v>20500</v>
+        <v>22500</v>
       </c>
       <c r="F59" s="3">
-        <v>17800</v>
+        <v>20900</v>
       </c>
       <c r="G59" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="H59" s="3">
-        <v>11700</v>
+        <v>18700</v>
       </c>
       <c r="I59" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="J59" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K59" s="3">
         <v>10800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3171,44 +3307,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>94500</v>
+        <v>82100</v>
       </c>
       <c r="E60" s="3">
-        <v>99700</v>
+        <v>96200</v>
       </c>
       <c r="F60" s="3">
-        <v>91100</v>
+        <v>101400</v>
       </c>
       <c r="G60" s="3">
-        <v>92400</v>
+        <v>92700</v>
       </c>
       <c r="H60" s="3">
-        <v>75900</v>
+        <v>94100</v>
       </c>
       <c r="I60" s="3">
-        <v>71200</v>
+        <v>77200</v>
       </c>
       <c r="J60" s="3">
+        <v>72500</v>
+      </c>
+      <c r="K60" s="3">
         <v>72400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>63900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>73900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>67900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,44 +3363,47 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8700</v>
+        <v>7200</v>
       </c>
       <c r="E61" s="3">
-        <v>7300</v>
+        <v>8800</v>
       </c>
       <c r="F61" s="3">
-        <v>8400</v>
+        <v>7400</v>
       </c>
       <c r="G61" s="3">
-        <v>9100</v>
+        <v>8500</v>
       </c>
       <c r="H61" s="3">
-        <v>10500</v>
+        <v>9300</v>
       </c>
       <c r="I61" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="J61" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K61" s="3">
         <v>10800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10700</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3277,25 +3419,28 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -3307,14 +3452,14 @@
         <v>100</v>
       </c>
       <c r="L62" s="3">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,44 +3643,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>103700</v>
+        <v>89700</v>
       </c>
       <c r="E66" s="3">
-        <v>107800</v>
+        <v>105500</v>
       </c>
       <c r="F66" s="3">
-        <v>100100</v>
+        <v>109700</v>
       </c>
       <c r="G66" s="3">
-        <v>102300</v>
+        <v>101900</v>
       </c>
       <c r="H66" s="3">
-        <v>87200</v>
+        <v>104100</v>
       </c>
       <c r="I66" s="3">
-        <v>82700</v>
+        <v>88700</v>
       </c>
       <c r="J66" s="3">
+        <v>84200</v>
+      </c>
+      <c r="K66" s="3">
         <v>83600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>73700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>83900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>79900</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3542,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,44 +3945,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>61300</v>
+        <v>55900</v>
       </c>
       <c r="E72" s="3">
-        <v>59800</v>
+        <v>62400</v>
       </c>
       <c r="F72" s="3">
-        <v>61400</v>
+        <v>60800</v>
       </c>
       <c r="G72" s="3">
-        <v>65300</v>
+        <v>62500</v>
       </c>
       <c r="H72" s="3">
-        <v>71000</v>
+        <v>66500</v>
       </c>
       <c r="I72" s="3">
-        <v>72200</v>
+        <v>72300</v>
       </c>
       <c r="J72" s="3">
+        <v>73400</v>
+      </c>
+      <c r="K72" s="3">
         <v>76600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>75000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>63200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3828,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,44 +4169,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>60900</v>
+        <v>57100</v>
       </c>
       <c r="E76" s="3">
-        <v>61600</v>
+        <v>62000</v>
       </c>
       <c r="F76" s="3">
-        <v>64900</v>
+        <v>62700</v>
       </c>
       <c r="G76" s="3">
-        <v>68800</v>
+        <v>66000</v>
       </c>
       <c r="H76" s="3">
-        <v>76800</v>
+        <v>70000</v>
       </c>
       <c r="I76" s="3">
-        <v>77400</v>
+        <v>78200</v>
       </c>
       <c r="J76" s="3">
+        <v>78800</v>
+      </c>
+      <c r="K76" s="3">
         <v>81800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>79200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>67700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4040,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
-        <v>-3900</v>
-      </c>
       <c r="G81" s="3">
-        <v>-6300</v>
+        <v>-4000</v>
       </c>
       <c r="H81" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
-        <v>-4200</v>
-      </c>
       <c r="J81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1900</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4257,8 +4455,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4575,8 +4791,8 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
@@ -4596,8 +4812,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4649,8 +4869,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4808,8 +5037,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -4829,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5094,8 +5339,8 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -5115,8 +5360,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5147,8 +5395,8 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
@@ -5168,8 +5416,11 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5200,8 +5451,8 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
@@ -5219,6 +5470,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>59100</v>
+        <v>59500</v>
       </c>
       <c r="E8" s="3">
-        <v>67700</v>
+        <v>68200</v>
       </c>
       <c r="F8" s="3">
-        <v>51800</v>
+        <v>52100</v>
       </c>
       <c r="G8" s="3">
-        <v>56800</v>
+        <v>57100</v>
       </c>
       <c r="H8" s="3">
-        <v>49900</v>
+        <v>50200</v>
       </c>
       <c r="I8" s="3">
-        <v>53200</v>
+        <v>53600</v>
       </c>
       <c r="J8" s="3">
-        <v>47100</v>
+        <v>47400</v>
       </c>
       <c r="K8" s="3">
         <v>43700</v>
@@ -808,25 +808,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>49300</v>
+        <v>49700</v>
       </c>
       <c r="E9" s="3">
-        <v>61900</v>
+        <v>62300</v>
       </c>
       <c r="F9" s="3">
-        <v>47400</v>
+        <v>47700</v>
       </c>
       <c r="G9" s="3">
-        <v>52600</v>
+        <v>52900</v>
       </c>
       <c r="H9" s="3">
-        <v>46900</v>
+        <v>47200</v>
       </c>
       <c r="I9" s="3">
-        <v>45900</v>
+        <v>46200</v>
       </c>
       <c r="J9" s="3">
-        <v>40500</v>
+        <v>40800</v>
       </c>
       <c r="K9" s="3">
         <v>38700</v>
@@ -864,10 +864,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="E10" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="F10" s="3">
         <v>4400</v>
@@ -879,7 +879,7 @@
         <v>3000</v>
       </c>
       <c r="I10" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="J10" s="3">
         <v>6600</v>
@@ -1185,25 +1185,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>63900</v>
+        <v>64300</v>
       </c>
       <c r="E17" s="3">
-        <v>65500</v>
+        <v>65900</v>
       </c>
       <c r="F17" s="3">
-        <v>53100</v>
+        <v>53400</v>
       </c>
       <c r="G17" s="3">
-        <v>60100</v>
+        <v>60500</v>
       </c>
       <c r="H17" s="3">
-        <v>55900</v>
+        <v>56300</v>
       </c>
       <c r="I17" s="3">
-        <v>52400</v>
+        <v>52800</v>
       </c>
       <c r="J17" s="3">
-        <v>50400</v>
+        <v>50700</v>
       </c>
       <c r="K17" s="3">
         <v>43000</v>
@@ -1241,7 +1241,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="E18" s="3">
         <v>2300</v>
@@ -1250,16 +1250,16 @@
         <v>-1300</v>
       </c>
       <c r="G18" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="H18" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="I18" s="3">
         <v>800</v>
       </c>
       <c r="J18" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="K18" s="3">
         <v>700</v>
@@ -1499,7 +1499,7 @@
         <v>-3700</v>
       </c>
       <c r="H23" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="I23" s="3">
         <v>500</v>
@@ -1561,7 +1561,7 @@
         <v>300</v>
       </c>
       <c r="J24" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
@@ -1667,7 +1667,7 @@
         <v>-4000</v>
       </c>
       <c r="H26" s="3">
-        <v>-6100</v>
+        <v>-6200</v>
       </c>
       <c r="I26" s="3">
         <v>200</v>
@@ -1723,7 +1723,7 @@
         <v>-4000</v>
       </c>
       <c r="H27" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="I27" s="3">
         <v>100</v>
@@ -2059,7 +2059,7 @@
         <v>-4000</v>
       </c>
       <c r="H33" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="I33" s="3">
         <v>100</v>
@@ -2171,7 +2171,7 @@
         <v>-4000</v>
       </c>
       <c r="H35" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="I35" s="3">
         <v>100</v>
@@ -2320,25 +2320,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47800</v>
+        <v>48100</v>
       </c>
       <c r="E41" s="3">
-        <v>58500</v>
+        <v>58900</v>
       </c>
       <c r="F41" s="3">
-        <v>57400</v>
+        <v>57800</v>
       </c>
       <c r="G41" s="3">
-        <v>50700</v>
+        <v>51100</v>
       </c>
       <c r="H41" s="3">
-        <v>62500</v>
+        <v>62900</v>
       </c>
       <c r="I41" s="3">
-        <v>59000</v>
+        <v>59400</v>
       </c>
       <c r="J41" s="3">
-        <v>64000</v>
+        <v>64400</v>
       </c>
       <c r="K41" s="3">
         <v>78700</v>
@@ -2376,7 +2376,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -2432,25 +2432,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="E43" s="3">
-        <v>36500</v>
+        <v>36800</v>
       </c>
       <c r="F43" s="3">
-        <v>34100</v>
+        <v>34400</v>
       </c>
       <c r="G43" s="3">
-        <v>38100</v>
+        <v>38400</v>
       </c>
       <c r="H43" s="3">
-        <v>34100</v>
+        <v>34400</v>
       </c>
       <c r="I43" s="3">
-        <v>40000</v>
+        <v>40200</v>
       </c>
       <c r="J43" s="3">
-        <v>33400</v>
+        <v>33600</v>
       </c>
       <c r="K43" s="3">
         <v>33000</v>
@@ -2488,25 +2488,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23800</v>
+        <v>24000</v>
       </c>
       <c r="E44" s="3">
-        <v>34500</v>
+        <v>34700</v>
       </c>
       <c r="F44" s="3">
-        <v>43400</v>
+        <v>43700</v>
       </c>
       <c r="G44" s="3">
-        <v>40900</v>
+        <v>41200</v>
       </c>
       <c r="H44" s="3">
-        <v>38600</v>
+        <v>38900</v>
       </c>
       <c r="I44" s="3">
-        <v>35100</v>
+        <v>35300</v>
       </c>
       <c r="J44" s="3">
-        <v>30700</v>
+        <v>30900</v>
       </c>
       <c r="K44" s="3">
         <v>25700</v>
@@ -2544,7 +2544,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="E45" s="3">
         <v>9300</v>
@@ -2556,10 +2556,10 @@
         <v>8300</v>
       </c>
       <c r="H45" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="I45" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="J45" s="3">
         <v>6400</v>
@@ -2600,25 +2600,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>118900</v>
+        <v>119700</v>
       </c>
       <c r="E46" s="3">
-        <v>138700</v>
+        <v>139600</v>
       </c>
       <c r="F46" s="3">
-        <v>142800</v>
+        <v>143800</v>
       </c>
       <c r="G46" s="3">
-        <v>138100</v>
+        <v>139000</v>
       </c>
       <c r="H46" s="3">
-        <v>144100</v>
+        <v>145100</v>
       </c>
       <c r="I46" s="3">
-        <v>138700</v>
+        <v>139600</v>
       </c>
       <c r="J46" s="3">
-        <v>134400</v>
+        <v>135300</v>
       </c>
       <c r="K46" s="3">
         <v>141000</v>
@@ -2712,25 +2712,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22500</v>
+        <v>22700</v>
       </c>
       <c r="E48" s="3">
-        <v>22800</v>
+        <v>23000</v>
       </c>
       <c r="F48" s="3">
-        <v>23000</v>
+        <v>23200</v>
       </c>
       <c r="G48" s="3">
-        <v>23400</v>
+        <v>23500</v>
       </c>
       <c r="H48" s="3">
-        <v>23200</v>
+        <v>23300</v>
       </c>
       <c r="I48" s="3">
-        <v>22200</v>
+        <v>22300</v>
       </c>
       <c r="J48" s="3">
-        <v>22500</v>
+        <v>22700</v>
       </c>
       <c r="K48" s="3">
         <v>19700</v>
@@ -2768,10 +2768,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E49" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="F49" s="3">
         <v>3700</v>
@@ -2783,7 +2783,7 @@
         <v>4500</v>
       </c>
       <c r="I49" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="J49" s="3">
         <v>5300</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>146800</v>
+        <v>147800</v>
       </c>
       <c r="E54" s="3">
-        <v>167600</v>
+        <v>168700</v>
       </c>
       <c r="F54" s="3">
-        <v>172400</v>
+        <v>173600</v>
       </c>
       <c r="G54" s="3">
-        <v>167900</v>
+        <v>169000</v>
       </c>
       <c r="H54" s="3">
-        <v>174100</v>
+        <v>175300</v>
       </c>
       <c r="I54" s="3">
-        <v>166900</v>
+        <v>168000</v>
       </c>
       <c r="J54" s="3">
-        <v>163000</v>
+        <v>164100</v>
       </c>
       <c r="K54" s="3">
         <v>165400</v>
@@ -3148,25 +3148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>29200</v>
+        <v>29400</v>
       </c>
       <c r="E57" s="3">
-        <v>29500</v>
+        <v>29700</v>
       </c>
       <c r="F57" s="3">
-        <v>35600</v>
+        <v>35900</v>
       </c>
       <c r="G57" s="3">
-        <v>31800</v>
+        <v>32000</v>
       </c>
       <c r="H57" s="3">
-        <v>36000</v>
+        <v>36300</v>
       </c>
       <c r="I57" s="3">
-        <v>30700</v>
+        <v>30900</v>
       </c>
       <c r="J57" s="3">
-        <v>32200</v>
+        <v>32400</v>
       </c>
       <c r="K57" s="3">
         <v>33300</v>
@@ -3204,25 +3204,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>34100</v>
+        <v>34400</v>
       </c>
       <c r="E58" s="3">
-        <v>44200</v>
+        <v>44400</v>
       </c>
       <c r="F58" s="3">
-        <v>44900</v>
+        <v>45200</v>
       </c>
       <c r="G58" s="3">
-        <v>42900</v>
+        <v>43100</v>
       </c>
       <c r="H58" s="3">
-        <v>39400</v>
+        <v>39700</v>
       </c>
       <c r="I58" s="3">
-        <v>34600</v>
+        <v>34800</v>
       </c>
       <c r="J58" s="3">
-        <v>28200</v>
+        <v>28400</v>
       </c>
       <c r="K58" s="3">
         <v>28200</v>
@@ -3260,19 +3260,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18700</v>
+        <v>18900</v>
       </c>
       <c r="E59" s="3">
-        <v>22500</v>
+        <v>22700</v>
       </c>
       <c r="F59" s="3">
-        <v>20900</v>
+        <v>21000</v>
       </c>
       <c r="G59" s="3">
-        <v>18100</v>
+        <v>18200</v>
       </c>
       <c r="H59" s="3">
-        <v>18700</v>
+        <v>18800</v>
       </c>
       <c r="I59" s="3">
         <v>12000</v>
@@ -3316,25 +3316,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>82100</v>
+        <v>82600</v>
       </c>
       <c r="E60" s="3">
-        <v>96200</v>
+        <v>96800</v>
       </c>
       <c r="F60" s="3">
-        <v>101400</v>
+        <v>102100</v>
       </c>
       <c r="G60" s="3">
-        <v>92700</v>
+        <v>93300</v>
       </c>
       <c r="H60" s="3">
-        <v>94100</v>
+        <v>94700</v>
       </c>
       <c r="I60" s="3">
-        <v>77200</v>
+        <v>77700</v>
       </c>
       <c r="J60" s="3">
-        <v>72500</v>
+        <v>73000</v>
       </c>
       <c r="K60" s="3">
         <v>72400</v>
@@ -3372,25 +3372,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="E61" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="F61" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="G61" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="H61" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="I61" s="3">
         <v>10700</v>
       </c>
       <c r="J61" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="K61" s="3">
         <v>10800</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>89700</v>
+        <v>90300</v>
       </c>
       <c r="E66" s="3">
-        <v>105500</v>
+        <v>106200</v>
       </c>
       <c r="F66" s="3">
-        <v>109700</v>
+        <v>110500</v>
       </c>
       <c r="G66" s="3">
-        <v>101900</v>
+        <v>102600</v>
       </c>
       <c r="H66" s="3">
-        <v>104100</v>
+        <v>104800</v>
       </c>
       <c r="I66" s="3">
-        <v>88700</v>
+        <v>89300</v>
       </c>
       <c r="J66" s="3">
-        <v>84200</v>
+        <v>84800</v>
       </c>
       <c r="K66" s="3">
         <v>83600</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>55900</v>
+        <v>56300</v>
       </c>
       <c r="E72" s="3">
-        <v>62400</v>
+        <v>62800</v>
       </c>
       <c r="F72" s="3">
-        <v>60800</v>
+        <v>61300</v>
       </c>
       <c r="G72" s="3">
-        <v>62500</v>
+        <v>62900</v>
       </c>
       <c r="H72" s="3">
-        <v>66500</v>
+        <v>66900</v>
       </c>
       <c r="I72" s="3">
-        <v>72300</v>
+        <v>72700</v>
       </c>
       <c r="J72" s="3">
-        <v>73400</v>
+        <v>73900</v>
       </c>
       <c r="K72" s="3">
         <v>76600</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>57100</v>
+        <v>57500</v>
       </c>
       <c r="E76" s="3">
-        <v>62000</v>
+        <v>62400</v>
       </c>
       <c r="F76" s="3">
-        <v>62700</v>
+        <v>63100</v>
       </c>
       <c r="G76" s="3">
-        <v>66000</v>
+        <v>66500</v>
       </c>
       <c r="H76" s="3">
-        <v>70000</v>
+        <v>70500</v>
       </c>
       <c r="I76" s="3">
-        <v>78200</v>
+        <v>78700</v>
       </c>
       <c r="J76" s="3">
-        <v>78800</v>
+        <v>79400</v>
       </c>
       <c r="K76" s="3">
         <v>81800</v>
@@ -4363,7 +4363,7 @@
         <v>-4000</v>
       </c>
       <c r="H81" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="I81" s="3">
         <v>100</v>

--- a/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAO_QTR_FIN.xlsx
@@ -752,16 +752,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>59500</v>
+        <v>59600</v>
       </c>
       <c r="E8" s="3">
         <v>68200</v>
       </c>
       <c r="F8" s="3">
-        <v>52100</v>
+        <v>52200</v>
       </c>
       <c r="G8" s="3">
-        <v>57100</v>
+        <v>57200</v>
       </c>
       <c r="H8" s="3">
         <v>50200</v>
@@ -811,7 +811,7 @@
         <v>49700</v>
       </c>
       <c r="E9" s="3">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="F9" s="3">
         <v>47700</v>
@@ -1188,10 +1188,10 @@
         <v>64300</v>
       </c>
       <c r="E17" s="3">
-        <v>65900</v>
+        <v>66000</v>
       </c>
       <c r="F17" s="3">
-        <v>53400</v>
+        <v>53500</v>
       </c>
       <c r="G17" s="3">
         <v>60500</v>
@@ -1203,7 +1203,7 @@
         <v>52800</v>
       </c>
       <c r="J17" s="3">
-        <v>50700</v>
+        <v>50800</v>
       </c>
       <c r="K17" s="3">
         <v>43000</v>
@@ -2320,7 +2320,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>48100</v>
+        <v>48200</v>
       </c>
       <c r="E41" s="3">
         <v>58900</v>
@@ -2335,7 +2335,7 @@
         <v>62900</v>
       </c>
       <c r="I41" s="3">
-        <v>59400</v>
+        <v>59500</v>
       </c>
       <c r="J41" s="3">
         <v>64400</v>
@@ -2447,7 +2447,7 @@
         <v>34400</v>
       </c>
       <c r="I43" s="3">
-        <v>40200</v>
+        <v>40300</v>
       </c>
       <c r="J43" s="3">
         <v>33600</v>
@@ -2503,7 +2503,7 @@
         <v>38900</v>
       </c>
       <c r="I44" s="3">
-        <v>35300</v>
+        <v>35400</v>
       </c>
       <c r="J44" s="3">
         <v>30900</v>
@@ -2553,7 +2553,7 @@
         <v>7900</v>
       </c>
       <c r="G45" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="H45" s="3">
         <v>9000</v>
@@ -2600,25 +2600,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>119700</v>
+        <v>119800</v>
       </c>
       <c r="E46" s="3">
-        <v>139600</v>
+        <v>139700</v>
       </c>
       <c r="F46" s="3">
-        <v>143800</v>
+        <v>143900</v>
       </c>
       <c r="G46" s="3">
-        <v>139000</v>
+        <v>139100</v>
       </c>
       <c r="H46" s="3">
-        <v>145100</v>
+        <v>145200</v>
       </c>
       <c r="I46" s="3">
-        <v>139600</v>
+        <v>139700</v>
       </c>
       <c r="J46" s="3">
-        <v>135300</v>
+        <v>135400</v>
       </c>
       <c r="K46" s="3">
         <v>141000</v>
@@ -2724,10 +2724,10 @@
         <v>23500</v>
       </c>
       <c r="H48" s="3">
-        <v>23300</v>
+        <v>23400</v>
       </c>
       <c r="I48" s="3">
-        <v>22300</v>
+        <v>22400</v>
       </c>
       <c r="J48" s="3">
         <v>22700</v>
@@ -2948,7 +2948,7 @@
         <v>1200</v>
       </c>
       <c r="H52" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I52" s="3">
         <v>1200</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>147800</v>
+        <v>147900</v>
       </c>
       <c r="E54" s="3">
-        <v>168700</v>
+        <v>168800</v>
       </c>
       <c r="F54" s="3">
-        <v>173600</v>
+        <v>173700</v>
       </c>
       <c r="G54" s="3">
-        <v>169000</v>
+        <v>169200</v>
       </c>
       <c r="H54" s="3">
-        <v>175300</v>
+        <v>175400</v>
       </c>
       <c r="I54" s="3">
-        <v>168000</v>
+        <v>168200</v>
       </c>
       <c r="J54" s="3">
-        <v>164100</v>
+        <v>164300</v>
       </c>
       <c r="K54" s="3">
         <v>165400</v>
@@ -3207,13 +3207,13 @@
         <v>34400</v>
       </c>
       <c r="E58" s="3">
-        <v>44400</v>
+        <v>44500</v>
       </c>
       <c r="F58" s="3">
         <v>45200</v>
       </c>
       <c r="G58" s="3">
-        <v>43100</v>
+        <v>43200</v>
       </c>
       <c r="H58" s="3">
         <v>39700</v>
@@ -3278,7 +3278,7 @@
         <v>12000</v>
       </c>
       <c r="J59" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="K59" s="3">
         <v>10800</v>
@@ -3316,22 +3316,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>82600</v>
+        <v>82700</v>
       </c>
       <c r="E60" s="3">
-        <v>96800</v>
+        <v>96900</v>
       </c>
       <c r="F60" s="3">
-        <v>102100</v>
+        <v>102200</v>
       </c>
       <c r="G60" s="3">
-        <v>93300</v>
+        <v>93400</v>
       </c>
       <c r="H60" s="3">
-        <v>94700</v>
+        <v>94800</v>
       </c>
       <c r="I60" s="3">
-        <v>77700</v>
+        <v>77800</v>
       </c>
       <c r="J60" s="3">
         <v>73000</v>
@@ -3652,22 +3652,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>90300</v>
+        <v>90400</v>
       </c>
       <c r="E66" s="3">
-        <v>106200</v>
+        <v>106300</v>
       </c>
       <c r="F66" s="3">
-        <v>110500</v>
+        <v>110600</v>
       </c>
       <c r="G66" s="3">
         <v>102600</v>
       </c>
       <c r="H66" s="3">
-        <v>104800</v>
+        <v>104900</v>
       </c>
       <c r="I66" s="3">
-        <v>89300</v>
+        <v>89400</v>
       </c>
       <c r="J66" s="3">
         <v>84800</v>
@@ -3966,13 +3966,13 @@
         <v>62900</v>
       </c>
       <c r="H72" s="3">
-        <v>66900</v>
+        <v>67000</v>
       </c>
       <c r="I72" s="3">
-        <v>72700</v>
+        <v>72800</v>
       </c>
       <c r="J72" s="3">
-        <v>73900</v>
+        <v>74000</v>
       </c>
       <c r="K72" s="3">
         <v>76600</v>
@@ -4181,7 +4181,7 @@
         <v>57500</v>
       </c>
       <c r="E76" s="3">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="F76" s="3">
         <v>63100</v>
@@ -4193,7 +4193,7 @@
         <v>70500</v>
       </c>
       <c r="I76" s="3">
-        <v>78700</v>
+        <v>78800</v>
       </c>
       <c r="J76" s="3">
         <v>79400</v>
